--- a/Results/data90.xlsx
+++ b/Results/data90.xlsx
@@ -5487,6 +5487,2042 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>funcCount_DDFact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$2:$AJ$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA03-4808-8E7D-54BF2996C648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>funcCount_DDFact_comp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$2:$AK$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA03-4808-8E7D-54BF2996C648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>funcCount_Linx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL$2:$AL$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA03-4808-8E7D-54BF2996C648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="651603864"/>
+        <c:axId val="651605504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="651603864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651605504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="651605504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651603864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5528,6 +7564,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6599,6 +8675,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6633,16 +9225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>204788</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6656,6 +9248,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>392905</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6929,11 +9551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" activeCellId="4" sqref="B1:B1048576 AB1:AB1048576 AC1:AC1048576 AD1:AD1048576 AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AL1" activeCellId="3" sqref="B1:B1048576 AJ1:AJ1048576 AK1:AK1048576 AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="36" max="36" width="18.86328125" customWidth="1"/>
+    <col min="37" max="37" width="22.06640625" customWidth="1"/>
+    <col min="38" max="38" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/Results/data90.xlsx
+++ b/Results/data90.xlsx
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>12.826967865774149</v>
+        <v>12.826967865774147</v>
       </c>
       <c r="H2">
         <v>14.705358793431742</v>
       </c>
       <c r="I2">
-        <v>13.17703450090452</v>
+        <v>13.177034500904522</v>
       </c>
       <c r="J2">
         <v>13.177034494771362</v>
@@ -734,28 +734,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.31801520821813412</v>
+        <v>9.4018270068706014E-2</v>
       </c>
       <c r="AK2">
-        <v>0.3367105139926127</v>
+        <v>0.23166570283891375</v>
       </c>
       <c r="AL2">
-        <v>6.9463671038569652E-2</v>
+        <v>5.9597399044254928E-2</v>
       </c>
       <c r="AM2">
-        <v>4.7103116055357193</v>
+        <v>1.787583942020228</v>
       </c>
       <c r="AN2">
-        <v>0.34375</v>
+        <v>0.15312500000000001</v>
       </c>
       <c r="AO2">
-        <v>0.40625</v>
+        <v>0.25624999999999998</v>
       </c>
       <c r="AP2">
-        <v>6.25E-2</v>
+        <v>5.7812500000000003E-2</v>
       </c>
       <c r="AQ2">
-        <v>7.296875</v>
+        <v>3.6921875000000002</v>
       </c>
       <c r="AR2">
         <v>13</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.069419883510598</v>
+        <v>19.069419883510594</v>
       </c>
       <c r="H3">
         <v>21.406405455625134</v>
       </c>
       <c r="I3">
-        <v>19.40446813935948</v>
+        <v>19.404468139359484</v>
       </c>
       <c r="J3">
-        <v>19.404468160169223</v>
+        <v>19.40446816016922</v>
       </c>
       <c r="K3">
         <v>6.2952983510598415E-2</v>
@@ -874,28 +874,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.15255751834313303</v>
+        <v>7.2628093670586452E-2</v>
       </c>
       <c r="AK3">
-        <v>0.22941328916526718</v>
+        <v>0.2068164913654825</v>
       </c>
       <c r="AL3">
-        <v>7.5382290264764631E-2</v>
+        <v>6.8045212983481498E-2</v>
       </c>
       <c r="AM3">
-        <v>2.6072520004567341</v>
+        <v>1.5509851410155375</v>
       </c>
       <c r="AN3">
-        <v>0.171875</v>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="AO3">
-        <v>0.21875</v>
+        <v>0.21406249999999999</v>
       </c>
       <c r="AP3">
-        <v>0.234375</v>
+        <v>8.4375000000000006E-2</v>
       </c>
       <c r="AQ3">
-        <v>4.890625</v>
+        <v>3.3328125000000002</v>
       </c>
       <c r="AR3">
         <v>15</v>
@@ -933,7 +933,7 @@
         <v>27.790842370158543</v>
       </c>
       <c r="I4">
-        <v>25.461296719056616</v>
+        <v>25.461296719056612</v>
       </c>
       <c r="J4">
         <v>25.461296737058628</v>
@@ -1014,28 +1014,28 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.18557644073298121</v>
+        <v>0.13439280615643776</v>
       </c>
       <c r="AK4">
-        <v>0.2254771652209836</v>
+        <v>0.20972433243301239</v>
       </c>
       <c r="AL4">
-        <v>9.9954519037214848E-2</v>
+        <v>6.2024448830047804E-2</v>
       </c>
       <c r="AM4">
-        <v>2.1221394783737701</v>
+        <v>1.5942584732647653</v>
       </c>
       <c r="AN4">
-        <v>0.21875</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AO4">
         <v>0.21875</v>
       </c>
       <c r="AP4">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ4">
-        <v>3.359375</v>
+        <v>3.203125</v>
       </c>
       <c r="AR4">
         <v>26</v>
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.774333703118291</v>
+        <v>30.774333703118295</v>
       </c>
       <c r="H5">
         <v>33.901642647431913</v>
       </c>
       <c r="I5">
-        <v>31.385759302095938</v>
+        <v>31.385759302095941</v>
       </c>
       <c r="J5">
         <v>31.385759287380246</v>
@@ -1154,28 +1154,28 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.16340912210836658</v>
+        <v>0.13143858588988241</v>
       </c>
       <c r="AK5">
-        <v>0.24944832682658347</v>
+        <v>0.22951936588152391</v>
       </c>
       <c r="AL5">
-        <v>0.1326899070751443</v>
+        <v>6.6999467890102457E-2</v>
       </c>
       <c r="AM5">
-        <v>2.5423184642445222</v>
+        <v>1.5497301763403861</v>
       </c>
       <c r="AN5">
-        <v>0.21875</v>
+        <v>0.15156249999999999</v>
       </c>
       <c r="AO5">
-        <v>0.25</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AQ5">
-        <v>4.375</v>
+        <v>3.1031249999999999</v>
       </c>
       <c r="AR5">
         <v>27</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.522469932107107</v>
+        <v>36.522469932107114</v>
       </c>
       <c r="H6">
         <v>39.881532729280764</v>
@@ -1216,7 +1216,7 @@
         <v>37.186873338387784</v>
       </c>
       <c r="J6">
-        <v>37.186873324805092</v>
+        <v>37.186873324805099</v>
       </c>
       <c r="K6">
         <v>0.25107915210710985</v>
@@ -1294,28 +1294,28 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.19211697524013821</v>
+        <v>0.15033833401170132</v>
       </c>
       <c r="AK6">
-        <v>0.17666018343774498</v>
+        <v>0.2719061048946092</v>
       </c>
       <c r="AL6">
-        <v>0.14047491362465953</v>
+        <v>6.7233448703996473E-2</v>
       </c>
       <c r="AM6">
-        <v>2.7347927440865125</v>
+        <v>1.7455315758631873</v>
       </c>
       <c r="AN6">
-        <v>0.234375</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.171875</v>
+        <v>0.29843750000000002</v>
       </c>
       <c r="AP6">
-        <v>0.140625</v>
+        <v>6.7187499999999997E-2</v>
       </c>
       <c r="AQ6">
-        <v>5.234375</v>
+        <v>3.4671875000000001</v>
       </c>
       <c r="AR6">
         <v>30</v>
@@ -1353,10 +1353,10 @@
         <v>45.724140232881439</v>
       </c>
       <c r="I7">
-        <v>42.886166814394265</v>
+        <v>42.886166814394258</v>
       </c>
       <c r="J7">
-        <v>42.88616687471459</v>
+        <v>42.886166874714597</v>
       </c>
       <c r="K7">
         <v>0.26438523645757073</v>
@@ -1434,28 +1434,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.25757844984970113</v>
+        <v>0.18573753029802967</v>
       </c>
       <c r="AK7">
-        <v>0.30399597406879492</v>
+        <v>0.25392540903342353</v>
       </c>
       <c r="AL7">
-        <v>0.13870988020994371</v>
+        <v>6.7634888576059163E-2</v>
       </c>
       <c r="AM7">
-        <v>2.3811907673004065</v>
+        <v>1.6144656914205218</v>
       </c>
       <c r="AN7">
-        <v>0.296875</v>
+        <v>0.21562500000000001</v>
       </c>
       <c r="AO7">
-        <v>0.3125</v>
+        <v>0.26406249999999998</v>
       </c>
       <c r="AP7">
-        <v>0.140625</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="AQ7">
-        <v>4.453125</v>
+        <v>3.4968750000000002</v>
       </c>
       <c r="AR7">
         <v>34</v>
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.795048516789635</v>
+        <v>47.795048516789628</v>
       </c>
       <c r="H8">
         <v>51.430485222771551</v>
       </c>
       <c r="I8">
-        <v>48.51317210818074</v>
+        <v>48.513172108180747</v>
       </c>
       <c r="J8">
-        <v>48.513172194444756</v>
+        <v>48.513172194444749</v>
       </c>
       <c r="K8">
         <v>0.3080793167896374</v>
@@ -1574,28 +1574,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.27924733817693825</v>
+        <v>0.180083437654457</v>
       </c>
       <c r="AK8">
-        <v>0.27251403879930258</v>
+        <v>0.24826701845577795</v>
       </c>
       <c r="AL8">
-        <v>0.13188452838999959</v>
+        <v>7.3991308550932264E-2</v>
       </c>
       <c r="AM8">
-        <v>2.4691768651364363</v>
+        <v>1.6076278066070795</v>
       </c>
       <c r="AN8">
-        <v>0.3125</v>
+        <v>0.20468749999999999</v>
       </c>
       <c r="AO8">
-        <v>0.28125</v>
+        <v>0.2578125</v>
       </c>
       <c r="AP8">
-        <v>0.140625</v>
+        <v>7.6562500000000006E-2</v>
       </c>
       <c r="AQ8">
-        <v>4.0625</v>
+        <v>3.3968750000000001</v>
       </c>
       <c r="AR8">
         <v>41</v>
@@ -1630,13 +1630,13 @@
         <v>53.374518240913105</v>
       </c>
       <c r="H9">
-        <v>56.999078140003974</v>
+        <v>56.999078140003988</v>
       </c>
       <c r="I9">
-        <v>54.079589005018228</v>
+        <v>54.079589005018235</v>
       </c>
       <c r="J9">
-        <v>54.079589028920076</v>
+        <v>54.079589028920068</v>
       </c>
       <c r="K9">
         <v>0.35263011091310403</v>
@@ -1714,28 +1714,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.26848906981488158</v>
+        <v>0.2074734017218037</v>
       </c>
       <c r="AK9">
-        <v>0.3495016338506659</v>
+        <v>0.33372332273924654</v>
       </c>
       <c r="AL9">
-        <v>0.16120210867448331</v>
+        <v>8.6593236142289837E-2</v>
       </c>
       <c r="AM9">
-        <v>2.5233043426942436</v>
+        <v>1.6628820470482659</v>
       </c>
       <c r="AN9">
-        <v>0.3125</v>
+        <v>0.234375</v>
       </c>
       <c r="AO9">
-        <v>0.359375</v>
+        <v>0.34218749999999998</v>
       </c>
       <c r="AP9">
-        <v>0.296875</v>
+        <v>9.5312499999999994E-2</v>
       </c>
       <c r="AQ9">
-        <v>4.546875</v>
+        <v>3.5281250000000002</v>
       </c>
       <c r="AR9">
         <v>44</v>
@@ -1770,10 +1770,10 @@
         <v>58.910041609902166</v>
       </c>
       <c r="H10">
-        <v>62.512133616428684</v>
+        <v>62.51213361642867</v>
       </c>
       <c r="I10">
-        <v>59.59899890717697</v>
+        <v>59.598998907176977</v>
       </c>
       <c r="J10">
         <v>59.59899937074276</v>
@@ -1854,28 +1854,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.28985293419565411</v>
+        <v>0.20760663767806356</v>
       </c>
       <c r="AK10">
-        <v>0.33332991210435092</v>
+        <v>0.3290006629723678</v>
       </c>
       <c r="AL10">
-        <v>0.14426702521146403</v>
+        <v>9.3712731859911719E-2</v>
       </c>
       <c r="AM10">
-        <v>2.7267845023458941</v>
+        <v>1.6573453778124609</v>
       </c>
       <c r="AN10">
-        <v>0.328125</v>
+        <v>0.23281250000000001</v>
       </c>
       <c r="AO10">
-        <v>0.34375</v>
+        <v>0.3359375</v>
       </c>
       <c r="AP10">
-        <v>0.15625</v>
+        <v>9.5312499999999994E-2</v>
       </c>
       <c r="AQ10">
-        <v>5.71875</v>
+        <v>3.5843750000000001</v>
       </c>
       <c r="AR10">
         <v>41</v>
@@ -1907,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>64.406702201870246</v>
+        <v>64.40670220187026</v>
       </c>
       <c r="H11">
-        <v>68.000682089241707</v>
+        <v>68.000682089241721</v>
       </c>
       <c r="I11">
-        <v>65.076425346600743</v>
+        <v>65.076425346600757</v>
       </c>
       <c r="J11">
-        <v>65.076425355059115</v>
+        <v>65.076425355059101</v>
       </c>
       <c r="K11">
         <v>0.40401823187023922</v>
@@ -1994,28 +1994,28 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.30591496278772001</v>
+        <v>0.1927860780293138</v>
       </c>
       <c r="AK11">
-        <v>0.28392854164555126</v>
+        <v>0.31632044241778673</v>
       </c>
       <c r="AL11">
-        <v>0.1468531535819626</v>
+        <v>9.2437592553925446E-2</v>
       </c>
       <c r="AM11">
-        <v>2.0726245658781162</v>
+        <v>1.6040575063578957</v>
       </c>
       <c r="AN11">
-        <v>0.640625</v>
+        <v>0.23906250000000001</v>
       </c>
       <c r="AO11">
-        <v>0.765625</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.15625</v>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="AQ11">
-        <v>4.078125</v>
+        <v>3.35</v>
       </c>
       <c r="AR11">
         <v>41</v>
@@ -2056,7 +2056,7 @@
         <v>70.514399118661117</v>
       </c>
       <c r="J12">
-        <v>70.514399055295968</v>
+        <v>70.514399055295954</v>
       </c>
       <c r="K12">
         <v>0.40399923527957071</v>
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.26190106575559341</v>
+        <v>0.18748909880341022</v>
       </c>
       <c r="AK12">
-        <v>0.40516385334730903</v>
+        <v>0.32815570196328986</v>
       </c>
       <c r="AL12">
-        <v>0.10469217278403792</v>
+        <v>7.4892752111520494E-2</v>
       </c>
       <c r="AM12">
-        <v>2.6623631882603949</v>
+        <v>1.5886072031450613</v>
       </c>
       <c r="AN12">
-        <v>0.328125</v>
+        <v>0.2109375</v>
       </c>
       <c r="AO12">
-        <v>0.40625</v>
+        <v>0.33906249999999999</v>
       </c>
       <c r="AP12">
-        <v>0.109375</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AQ12">
-        <v>5.40625</v>
+        <v>3.3343750000000001</v>
       </c>
       <c r="AR12">
         <v>36</v>
@@ -2187,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>75.275230817371636</v>
+        <v>75.275230817371622</v>
       </c>
       <c r="H13">
         <v>78.829445923037156</v>
       </c>
       <c r="I13">
-        <v>75.91681708272047</v>
+        <v>75.916817082720485</v>
       </c>
       <c r="J13">
-        <v>75.916817394029721</v>
+        <v>75.916817394029735</v>
       </c>
       <c r="K13">
         <v>0.38000482737163566</v>
@@ -2274,28 +2274,28 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.32072578379286854</v>
+        <v>0.23327768470932977</v>
       </c>
       <c r="AK13">
-        <v>0.91215470711927815</v>
+        <v>0.77874354067016338</v>
       </c>
       <c r="AL13">
-        <v>0.13758728945008447</v>
+        <v>7.4248126148855426E-2</v>
       </c>
       <c r="AM13">
-        <v>2.5018051259418534</v>
+        <v>1.5486997306093409</v>
       </c>
       <c r="AN13">
-        <v>0.359375</v>
+        <v>0.25937500000000002</v>
       </c>
       <c r="AO13">
-        <v>0.90625</v>
+        <v>0.79062500000000002</v>
       </c>
       <c r="AP13">
-        <v>0.140625</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AQ13">
-        <v>4.3125</v>
+        <v>3.5249999999999999</v>
       </c>
       <c r="AR13">
         <v>41</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>80.643982200751054</v>
+        <v>80.64398220075104</v>
       </c>
       <c r="H14">
-        <v>84.165734501266741</v>
+        <v>84.165734501266755</v>
       </c>
       <c r="I14">
-        <v>81.279370834617964</v>
+        <v>81.279370834617978</v>
       </c>
       <c r="J14">
         <v>81.27937082228641</v>
@@ -2402,7 +2402,7 @@
         <v>6.6181051749936159E-9</v>
       </c>
       <c r="AF14">
-        <v>1.0000000558039612</v>
+        <v>1.000000055803961</v>
       </c>
       <c r="AG14">
         <v>2.2628976470429052E-9</v>
@@ -2414,28 +2414,28 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.32392067709542793</v>
+        <v>0.25193652400412214</v>
       </c>
       <c r="AK14">
-        <v>0.81993804581966445</v>
+        <v>0.6865502568015609</v>
       </c>
       <c r="AL14">
-        <v>0.13962912167215988</v>
+        <v>0.1058275174908276</v>
       </c>
       <c r="AM14">
-        <v>2.2430255039791032</v>
+        <v>1.6363260746358705</v>
       </c>
       <c r="AN14">
-        <v>0.359375</v>
+        <v>0.27656249999999999</v>
       </c>
       <c r="AO14">
-        <v>0.8125</v>
+        <v>0.69843750000000004</v>
       </c>
       <c r="AP14">
-        <v>0.125</v>
+        <v>0.1046875</v>
       </c>
       <c r="AQ14">
-        <v>4.59375</v>
+        <v>3.4859374999999999</v>
       </c>
       <c r="AR14">
         <v>42</v>
@@ -2467,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85.978777881959701</v>
+        <v>85.978777881959687</v>
       </c>
       <c r="H15">
         <v>89.449531576690674</v>
       </c>
       <c r="I15">
-        <v>86.597323644974296</v>
+        <v>86.597323644974281</v>
       </c>
       <c r="J15">
         <v>86.597323683469199</v>
@@ -2554,28 +2554,28 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.34076434959657298</v>
+        <v>0.23796624967083915</v>
       </c>
       <c r="AK15">
-        <v>0.84319203229982287</v>
+        <v>0.74287554882854034</v>
       </c>
       <c r="AL15">
-        <v>0.14934081470581065</v>
+        <v>9.0574887171212065E-2</v>
       </c>
       <c r="AM15">
-        <v>2.2238041842485763</v>
+        <v>1.521448839990801</v>
       </c>
       <c r="AN15">
-        <v>0.375</v>
+        <v>0.25937500000000002</v>
       </c>
       <c r="AO15">
-        <v>0.90625</v>
+        <v>0.78437500000000004</v>
       </c>
       <c r="AP15">
-        <v>0.15625</v>
+        <v>9.2187500000000006E-2</v>
       </c>
       <c r="AQ15">
-        <v>5.703125</v>
+        <v>3.3781249999999998</v>
       </c>
       <c r="AR15">
         <v>41</v>
@@ -2610,13 +2610,13 @@
         <v>91.282062459881672</v>
       </c>
       <c r="H16">
-        <v>94.703333994680804</v>
+        <v>94.703333994680818</v>
       </c>
       <c r="I16">
-        <v>91.871651692347854</v>
+        <v>91.871651692347868</v>
       </c>
       <c r="J16">
-        <v>91.871651687016936</v>
+        <v>91.87165168701695</v>
       </c>
       <c r="K16">
         <v>0.52360799988167628</v>
@@ -2694,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.30454187391830362</v>
+        <v>0.22691327827487343</v>
       </c>
       <c r="AK16">
-        <v>0.81924685065180824</v>
+        <v>0.80501488720970116</v>
       </c>
       <c r="AL16">
-        <v>9.1203122213569368E-2</v>
+        <v>8.064303508557541E-2</v>
       </c>
       <c r="AM16">
-        <v>2.236709487623918</v>
+        <v>1.523815558328899</v>
       </c>
       <c r="AN16">
-        <v>0.34375</v>
+        <v>0.24843750000000001</v>
       </c>
       <c r="AO16">
-        <v>0.828125</v>
+        <v>0.82343750000000004</v>
       </c>
       <c r="AP16">
-        <v>9.375E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="AQ16">
-        <v>4.40625</v>
+        <v>3.3953125000000002</v>
       </c>
       <c r="AR16">
         <v>39</v>
@@ -2747,16 +2747,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>96.551245622772655</v>
+        <v>96.55124562277264</v>
       </c>
       <c r="H17">
-        <v>99.931862635881828</v>
+        <v>99.931862635881814</v>
       </c>
       <c r="I17">
         <v>97.107653841822525</v>
       </c>
       <c r="J17">
-        <v>97.107653940355874</v>
+        <v>97.107653940355888</v>
       </c>
       <c r="K17">
         <v>0.5830838027726486</v>
@@ -2834,28 +2834,28 @@
         <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0.30633481173190735</v>
+        <v>0.23462951327179588</v>
       </c>
       <c r="AK17">
-        <v>0.99772338593900545</v>
+        <v>0.77507586334750689</v>
       </c>
       <c r="AL17">
-        <v>0.15048008395695922</v>
+        <v>7.8894257029928694E-2</v>
       </c>
       <c r="AM17">
-        <v>1.4252088339553555</v>
+        <v>1.4900691422125443</v>
       </c>
       <c r="AN17">
-        <v>0.4375</v>
+        <v>0.25312499999999999</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0.77968749999999998</v>
       </c>
       <c r="AP17">
-        <v>0.15625</v>
+        <v>7.9687499999999994E-2</v>
       </c>
       <c r="AQ17">
-        <v>3.875</v>
+        <v>3.4109375000000002</v>
       </c>
       <c r="AR17">
         <v>39</v>
@@ -2893,7 +2893,7 @@
         <v>105.12387706855509</v>
       </c>
       <c r="I18">
-        <v>102.31029613360585</v>
+        <v>102.31029613360583</v>
       </c>
       <c r="J18">
         <v>102.31029611666349</v>
@@ -2962,7 +2962,7 @@
         <v>4.3175149011531744E-9</v>
       </c>
       <c r="AF18">
-        <v>4.6197718639787645E-9</v>
+        <v>4.6197718639787636E-9</v>
       </c>
       <c r="AG18">
         <v>2.5827626287666661E-9</v>
@@ -2974,28 +2974,28 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.3334158704825344</v>
+        <v>0.23097764849763144</v>
       </c>
       <c r="AK18">
-        <v>0.7119499465646798</v>
+        <v>0.77310147582716771</v>
       </c>
       <c r="AL18">
-        <v>0.10084617684076018</v>
+        <v>8.6863749395803477E-2</v>
       </c>
       <c r="AM18">
-        <v>1.8915833918149663</v>
+        <v>1.4540153449076054</v>
       </c>
       <c r="AN18">
-        <v>0.34375</v>
+        <v>0.27031250000000001</v>
       </c>
       <c r="AO18">
-        <v>0.71875</v>
+        <v>0.78437500000000004</v>
       </c>
       <c r="AP18">
-        <v>0.109375</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="AQ18">
-        <v>3.875</v>
+        <v>3.0656249999999998</v>
       </c>
       <c r="AR18">
         <v>40</v>
@@ -3027,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>106.96760109638571</v>
+        <v>106.96760109638572</v>
       </c>
       <c r="H19">
-        <v>110.26400969409832</v>
+        <v>110.26400969409835</v>
       </c>
       <c r="I19">
         <v>107.48232498105074</v>
@@ -3114,28 +3114,28 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.37244803046262287</v>
+        <v>0.25252819557011297</v>
       </c>
       <c r="AK19">
-        <v>0.79092228207947435</v>
+        <v>0.7070599340491639</v>
       </c>
       <c r="AL19">
-        <v>0.14971608075982074</v>
+        <v>8.8632285118531579E-2</v>
       </c>
       <c r="AM19">
-        <v>2.2729117566685098</v>
+        <v>1.4557954273188876</v>
       </c>
       <c r="AN19">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="AO19">
-        <v>0.796875</v>
+        <v>0.72031250000000002</v>
       </c>
       <c r="AP19">
-        <v>0.15625</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="AQ19">
-        <v>4.53125</v>
+        <v>3.1124999999999998</v>
       </c>
       <c r="AR19">
         <v>44</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>112.1183401833726</v>
+        <v>112.11834018337257</v>
       </c>
       <c r="H20">
         <v>115.36120349387215</v>
@@ -3176,7 +3176,7 @@
         <v>112.62081651683982</v>
       </c>
       <c r="J20">
-        <v>112.62081652697036</v>
+        <v>112.62081652697034</v>
       </c>
       <c r="K20">
         <v>0.76629718337260044</v>
@@ -3254,28 +3254,28 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.31292217431076136</v>
+        <v>0.22112309507703723</v>
       </c>
       <c r="AK20">
-        <v>0.45899849508690138</v>
+        <v>0.39427290662545778</v>
       </c>
       <c r="AL20">
-        <v>0.13539791672814189</v>
+        <v>7.6454153071242745E-2</v>
       </c>
       <c r="AM20">
-        <v>1.7330790291065332</v>
+        <v>1.467979717600072</v>
       </c>
       <c r="AN20">
-        <v>0.34375</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="AO20">
-        <v>0.453125</v>
+        <v>0.40156249999999999</v>
       </c>
       <c r="AP20">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AQ20">
-        <v>4.5625</v>
+        <v>3.3640625000000002</v>
       </c>
       <c r="AR20">
         <v>42</v>
@@ -3307,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>117.23470472964205</v>
+        <v>117.23470472964206</v>
       </c>
       <c r="H21">
-        <v>120.44512061446227</v>
+        <v>120.44512061446224</v>
       </c>
       <c r="I21">
-        <v>117.72799165908542</v>
+        <v>117.7279916590854</v>
       </c>
       <c r="J21">
         <v>117.72799178413302</v>
@@ -3394,28 +3394,28 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.29523848318102447</v>
+        <v>0.24298639703865929</v>
       </c>
       <c r="AK21">
-        <v>0.81521193872065711</v>
+        <v>0.82775878454424434</v>
       </c>
       <c r="AL21">
-        <v>0.15235577274657547</v>
+        <v>8.2796556649176622E-2</v>
       </c>
       <c r="AM21">
-        <v>2.0362795674369134</v>
+        <v>1.5037083473256747</v>
       </c>
       <c r="AN21">
-        <v>0.328125</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="AO21">
-        <v>0.828125</v>
+        <v>0.83906250000000004</v>
       </c>
       <c r="AP21">
-        <v>0.140625</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="AQ21">
-        <v>3.84375</v>
+        <v>3.40625</v>
       </c>
       <c r="AR21">
         <v>47</v>
@@ -3450,7 +3450,7 @@
         <v>122.32902139409575</v>
       </c>
       <c r="H22">
-        <v>125.50931587900521</v>
+        <v>125.50931587900524</v>
       </c>
       <c r="I22">
         <v>122.81091400921107</v>
@@ -3534,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0.32485114446524266</v>
+        <v>0.27793344424569166</v>
       </c>
       <c r="AK22">
-        <v>0.70292527907606295</v>
+        <v>0.61363118657941207</v>
       </c>
       <c r="AL22">
-        <v>0.17060236295732745</v>
+        <v>7.6556565783890251E-2</v>
       </c>
       <c r="AM22">
-        <v>1.879248364545633</v>
+        <v>1.5613819397602842</v>
       </c>
       <c r="AN22">
-        <v>0.359375</v>
+        <v>0.29843750000000002</v>
       </c>
       <c r="AO22">
-        <v>0.703125</v>
+        <v>0.62343749999999998</v>
       </c>
       <c r="AP22">
-        <v>0.171875</v>
+        <v>7.3437500000000003E-2</v>
       </c>
       <c r="AQ22">
-        <v>3.875</v>
+        <v>3.3406250000000002</v>
       </c>
       <c r="AR22">
         <v>47</v>
@@ -3590,13 +3590,13 @@
         <v>127.40430918619435</v>
       </c>
       <c r="H23">
-        <v>130.54403295098706</v>
+        <v>130.54403295098703</v>
       </c>
       <c r="I23">
         <v>127.87403197065541</v>
       </c>
       <c r="J23">
-        <v>127.87403227488488</v>
+        <v>127.87403227488491</v>
       </c>
       <c r="K23">
         <v>0.7464432861943493</v>
@@ -3674,28 +3674,28 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.34187795963035333</v>
+        <v>0.27490070649696885</v>
       </c>
       <c r="AK23">
-        <v>0.97580784838481638</v>
+        <v>0.72343134226726291</v>
       </c>
       <c r="AL23">
-        <v>0.18338995467299252</v>
+        <v>0.12609676702342726</v>
       </c>
       <c r="AM23">
-        <v>2.1212372361430605</v>
+        <v>1.373380135910939</v>
       </c>
       <c r="AN23">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="AO23">
-        <v>0.984375</v>
+        <v>0.73906249999999996</v>
       </c>
       <c r="AP23">
-        <v>0.1875</v>
+        <v>0.12343750000000001</v>
       </c>
       <c r="AQ23">
-        <v>4.5</v>
+        <v>2.9937499999999999</v>
       </c>
       <c r="AR23">
         <v>49</v>
@@ -3730,10 +3730,10 @@
         <v>132.46071857387031</v>
       </c>
       <c r="H24">
-        <v>135.54304818475515</v>
+        <v>135.54304818475518</v>
       </c>
       <c r="I24">
-        <v>132.91921588126763</v>
+        <v>132.9192158812676</v>
       </c>
       <c r="J24">
         <v>132.91921588341347</v>
@@ -3814,28 +3814,28 @@
         <v>3</v>
       </c>
       <c r="AJ24">
-        <v>0.33854643099530823</v>
+        <v>0.29609080444175445</v>
       </c>
       <c r="AK24">
-        <v>0.85837202529485646</v>
+        <v>0.68922806217378596</v>
       </c>
       <c r="AL24">
-        <v>0.11370465214440495</v>
+        <v>9.6494232910179278E-2</v>
       </c>
       <c r="AM24">
-        <v>1.3910971496458386</v>
+        <v>1.4007674378250914</v>
       </c>
       <c r="AN24">
-        <v>0.375</v>
+        <v>0.3203125</v>
       </c>
       <c r="AO24">
-        <v>0.859375</v>
+        <v>0.69843750000000004</v>
       </c>
       <c r="AP24">
-        <v>0.109375</v>
+        <v>9.5312499999999994E-2</v>
       </c>
       <c r="AQ24">
-        <v>3.046875</v>
+        <v>3.0546875</v>
       </c>
       <c r="AR24">
         <v>45</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>137.49737013253446</v>
+        <v>137.49737013253443</v>
       </c>
       <c r="H25">
-        <v>140.5118574488352</v>
+        <v>140.51185744883517</v>
       </c>
       <c r="I25">
-        <v>137.94724471751198</v>
+        <v>137.94724471751195</v>
       </c>
       <c r="J25">
         <v>137.94724441076983</v>
@@ -3954,28 +3954,28 @@
         <v>6</v>
       </c>
       <c r="AJ25">
-        <v>0.31005058714704142</v>
+        <v>0.29392932849270487</v>
       </c>
       <c r="AK25">
-        <v>1.2913645828388589</v>
+        <v>1.2378446566255383</v>
       </c>
       <c r="AL25">
-        <v>0.29365210206723485</v>
+        <v>0.19670396567810972</v>
       </c>
       <c r="AM25">
-        <v>1.4589468559119478</v>
+        <v>1.4179274207231629</v>
       </c>
       <c r="AN25">
-        <v>0.34375</v>
+        <v>0.31718750000000001</v>
       </c>
       <c r="AO25">
-        <v>1.3125</v>
+        <v>1.2484375000000001</v>
       </c>
       <c r="AP25">
-        <v>0.296875</v>
+        <v>0.21718750000000001</v>
       </c>
       <c r="AQ25">
-        <v>2.609375</v>
+        <v>3.0437500000000002</v>
       </c>
       <c r="AR25">
         <v>45</v>
@@ -4013,7 +4013,7 @@
         <v>145.46233161572673</v>
       </c>
       <c r="I26">
-        <v>142.95582079152865</v>
+        <v>142.95582079152862</v>
       </c>
       <c r="J26">
         <v>142.95582101492982</v>
@@ -4094,28 +4094,28 @@
         <v>2</v>
       </c>
       <c r="AJ26">
-        <v>0.35836689345138284</v>
+        <v>0.32563692015176199</v>
       </c>
       <c r="AK26">
-        <v>0.84520563938279314</v>
+        <v>0.63034857849037951</v>
       </c>
       <c r="AL26">
-        <v>0.14638647656607826</v>
+        <v>7.2712095829817205E-2</v>
       </c>
       <c r="AM26">
-        <v>1.6526030634539617</v>
+        <v>1.4524891292738382</v>
       </c>
       <c r="AN26">
-        <v>0.421875</v>
+        <v>0.35</v>
       </c>
       <c r="AO26">
-        <v>0.84375</v>
+        <v>0.64687499999999998</v>
       </c>
       <c r="AP26">
-        <v>0.140625</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="AQ26">
-        <v>2.84375</v>
+        <v>3.2406250000000001</v>
       </c>
       <c r="AR26">
         <v>51</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>147.50874565741566</v>
+        <v>147.50874565741563</v>
       </c>
       <c r="H27">
-        <v>150.38544410783999</v>
+        <v>150.38544410783996</v>
       </c>
       <c r="I27">
-        <v>147.94170851248381</v>
+        <v>147.94170851248379</v>
       </c>
       <c r="J27">
         <v>147.94170855931955</v>
@@ -4234,28 +4234,28 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.32177620800387968</v>
+        <v>0.3001694476545308</v>
       </c>
       <c r="AK27">
-        <v>0.48142625476780332</v>
+        <v>0.40437545725688517</v>
       </c>
       <c r="AL27">
-        <v>6.957336419281876E-2</v>
+        <v>7.6499249304873312E-2</v>
       </c>
       <c r="AM27">
-        <v>1.9010125127173496</v>
+        <v>1.5447386070267373</v>
       </c>
       <c r="AN27">
-        <v>0.359375</v>
+        <v>0.32343749999999999</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AP27">
-        <v>6.25E-2</v>
+        <v>7.6562500000000006E-2</v>
       </c>
       <c r="AQ27">
-        <v>3.75</v>
+        <v>3.2374999999999998</v>
       </c>
       <c r="AR27">
         <v>49</v>
@@ -4287,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>152.48409919217292</v>
+        <v>152.48409919217289</v>
       </c>
       <c r="H28">
-        <v>155.28970044371471</v>
+        <v>155.28970044371474</v>
       </c>
       <c r="I28">
         <v>152.89979471150627</v>
       </c>
       <c r="J28">
-        <v>152.89979504351908</v>
+        <v>152.89979504351911</v>
       </c>
       <c r="K28">
         <v>0.8621278921729072</v>
@@ -4374,28 +4374,28 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0.39320312991133455</v>
+        <v>0.32531884095623259</v>
       </c>
       <c r="AK28">
-        <v>0.47571258854033693</v>
+        <v>0.41543224547490087</v>
       </c>
       <c r="AL28">
-        <v>6.6826544973551769E-2</v>
+        <v>7.3153115184312417E-2</v>
       </c>
       <c r="AM28">
-        <v>1.1453915404126258</v>
+        <v>1.4372120584634502</v>
       </c>
       <c r="AN28">
-        <v>0.421875</v>
+        <v>0.34531250000000002</v>
       </c>
       <c r="AO28">
-        <v>0.484375</v>
+        <v>0.42656250000000001</v>
       </c>
       <c r="AP28">
-        <v>6.25E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="AQ28">
-        <v>3.71875</v>
+        <v>3.4421875000000002</v>
       </c>
       <c r="AR28">
         <v>45</v>
@@ -4427,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>157.43943826803792</v>
+        <v>157.43943826803795</v>
       </c>
       <c r="H29">
-        <v>160.18629344400887</v>
+        <v>160.1862934440089</v>
       </c>
       <c r="I29">
         <v>157.83292698271703</v>
@@ -4514,28 +4514,28 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.49419428133022514</v>
+        <v>0.36314155887351779</v>
       </c>
       <c r="AK29">
-        <v>0.94899845659807536</v>
+        <v>0.79723604350150767</v>
       </c>
       <c r="AL29">
-        <v>0.13573982579957328</v>
+        <v>7.4744216792926504E-2</v>
       </c>
       <c r="AM29">
-        <v>1.5194567430498802</v>
+        <v>1.4841138734425201</v>
       </c>
       <c r="AN29">
-        <v>0.53125</v>
+        <v>0.41093750000000001</v>
       </c>
       <c r="AO29">
-        <v>0.96875</v>
+        <v>0.80781250000000004</v>
       </c>
       <c r="AP29">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AQ29">
-        <v>4.234375</v>
+        <v>3.4140625</v>
       </c>
       <c r="AR29">
         <v>54</v>
@@ -4573,10 +4573,10 @@
         <v>165.07063662259088</v>
       </c>
       <c r="I30">
-        <v>162.7486563030879</v>
+        <v>162.74865630308793</v>
       </c>
       <c r="J30">
-        <v>162.74865771958838</v>
+        <v>162.74865771958841</v>
       </c>
       <c r="K30">
         <v>0.86574869243258945</v>
@@ -4654,28 +4654,28 @@
         <v>3</v>
       </c>
       <c r="AJ30">
-        <v>0.3801759452534938</v>
+        <v>0.37885041168755823</v>
       </c>
       <c r="AK30">
-        <v>0.87734541283756307</v>
+        <v>0.8165728658592325</v>
       </c>
       <c r="AL30">
-        <v>7.9460822865441788E-2</v>
+        <v>7.5429737277553852E-2</v>
       </c>
       <c r="AM30">
-        <v>1.8878717860226546</v>
+        <v>1.4021497047415514</v>
       </c>
       <c r="AN30">
-        <v>0.40625</v>
+        <v>0.40156249999999999</v>
       </c>
       <c r="AO30">
-        <v>0.875</v>
+        <v>0.83281249999999996</v>
       </c>
       <c r="AP30">
-        <v>7.8125E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AQ30">
-        <v>3.71875</v>
+        <v>3.35</v>
       </c>
       <c r="AR30">
         <v>53</v>
@@ -4716,7 +4716,7 @@
         <v>167.64946233397472</v>
       </c>
       <c r="J31">
-        <v>167.64946242377633</v>
+        <v>167.64946242377636</v>
       </c>
       <c r="K31">
         <v>0.87948913676811458</v>
@@ -4794,28 +4794,28 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.42253610572623923</v>
+        <v>0.29914038111128538</v>
       </c>
       <c r="AK31">
-        <v>0.87701633337481577</v>
+        <v>0.79294041876631982</v>
       </c>
       <c r="AL31">
-        <v>0.12911044625227885</v>
+        <v>6.5295721919816585E-2</v>
       </c>
       <c r="AM31">
-        <v>1.6917984802045554</v>
+        <v>1.5586551251099743</v>
       </c>
       <c r="AN31">
-        <v>0.421875</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="AO31">
-        <v>0.875</v>
+        <v>0.80312499999999998</v>
       </c>
       <c r="AP31">
-        <v>0.140625</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="AQ31">
-        <v>4.171875</v>
+        <v>3.3656250000000001</v>
       </c>
       <c r="AR31">
         <v>46</v>
@@ -4853,10 +4853,10 @@
         <v>174.80302308680325</v>
       </c>
       <c r="I32">
-        <v>172.53600009749459</v>
+        <v>172.53600009749462</v>
       </c>
       <c r="J32">
-        <v>172.53600009310657</v>
+        <v>172.53600009310659</v>
       </c>
       <c r="K32">
         <v>0.88730242352730215</v>
@@ -4934,28 +4934,28 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.48369164292119926</v>
+        <v>0.3497592034324456</v>
       </c>
       <c r="AK32">
-        <v>0.85672277909851469</v>
+        <v>0.69256569664860579</v>
       </c>
       <c r="AL32">
-        <v>9.2791107028444522E-2</v>
+        <v>8.2068249268629545E-2</v>
       </c>
       <c r="AM32">
-        <v>2.4429521827654734</v>
+        <v>1.4934744851860795</v>
       </c>
       <c r="AN32">
-        <v>0.515625</v>
+        <v>0.375</v>
       </c>
       <c r="AO32">
-        <v>0.875</v>
+        <v>0.70937499999999998</v>
       </c>
       <c r="AP32">
-        <v>9.375E-2</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ32">
-        <v>4.484375</v>
+        <v>3.265625</v>
       </c>
       <c r="AR32">
         <v>52</v>
@@ -4987,16 +4987,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>177.10821731518598</v>
+        <v>177.10821731518601</v>
       </c>
       <c r="H33">
-        <v>179.64176987798476</v>
+        <v>179.64176987798473</v>
       </c>
       <c r="I33">
-        <v>177.40839305137467</v>
+        <v>177.4083930513747</v>
       </c>
       <c r="J33">
-        <v>177.40839362172156</v>
+        <v>177.40839362172159</v>
       </c>
       <c r="K33">
         <v>0.90223031518598873</v>
@@ -5074,28 +5074,28 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0.47557755690893672</v>
+        <v>0.39515083984518451</v>
       </c>
       <c r="AK33">
-        <v>0.36304841766021295</v>
+        <v>0.37798675145784966</v>
       </c>
       <c r="AL33">
-        <v>8.9305943829407264E-2</v>
+        <v>8.4721966965565526E-2</v>
       </c>
       <c r="AM33">
-        <v>1.8080956755238009</v>
+        <v>1.3992750283294795</v>
       </c>
       <c r="AN33">
-        <v>0.515625</v>
+        <v>0.42343750000000002</v>
       </c>
       <c r="AO33">
-        <v>0.359375</v>
+        <v>0.38593749999999999</v>
       </c>
       <c r="AP33">
-        <v>9.375E-2</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="AQ33">
-        <v>4.0625</v>
+        <v>3.1359374999999998</v>
       </c>
       <c r="AR33">
         <v>57</v>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>181.98514157617331</v>
+        <v>181.98514157617328</v>
       </c>
       <c r="H34">
         <v>184.45804799030998</v>
@@ -5136,7 +5136,7 @@
         <v>182.26421031028443</v>
       </c>
       <c r="J34">
-        <v>182.26421029964573</v>
+        <v>182.26421029964575</v>
       </c>
       <c r="K34">
         <v>0.97641807617330301</v>
@@ -5214,28 +5214,28 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.48067347747826344</v>
+        <v>0.38296199503684836</v>
       </c>
       <c r="AK34">
-        <v>0.75820228957196578</v>
+        <v>0.68086793891930053</v>
       </c>
       <c r="AL34">
-        <v>0.12700735264873686</v>
+        <v>6.5040572176906813E-2</v>
       </c>
       <c r="AM34">
-        <v>1.7376643312502325</v>
+        <v>1.4636587222242003</v>
       </c>
       <c r="AN34">
-        <v>0.515625</v>
+        <v>0.3984375</v>
       </c>
       <c r="AO34">
-        <v>0.796875</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="AP34">
-        <v>0.109375</v>
+        <v>6.4062499999999994E-2</v>
       </c>
       <c r="AQ34">
-        <v>3.03125</v>
+        <v>3.234375</v>
       </c>
       <c r="AR34">
         <v>63</v>
@@ -5273,10 +5273,10 @@
         <v>189.26135446734133</v>
       </c>
       <c r="I35">
-        <v>187.10428258674247</v>
+        <v>187.1042825867425</v>
       </c>
       <c r="J35">
-        <v>187.10428264480328</v>
+        <v>187.10428264480331</v>
       </c>
       <c r="K35">
         <v>0.970536966217594</v>
@@ -5354,28 +5354,28 @@
         <v>2</v>
       </c>
       <c r="AJ35">
-        <v>0.50465811017298157</v>
+        <v>0.33042331122463214</v>
       </c>
       <c r="AK35">
-        <v>0.47024108117678304</v>
+        <v>0.40884120320343625</v>
       </c>
       <c r="AL35">
-        <v>8.2290713800938359E-2</v>
+        <v>8.6000858945331868E-2</v>
       </c>
       <c r="AM35">
-        <v>1.7766220794999532</v>
+        <v>1.5476041102362355</v>
       </c>
       <c r="AN35">
-        <v>0.53125</v>
+        <v>0.35</v>
       </c>
       <c r="AO35">
-        <v>0.484375</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="AP35">
-        <v>7.8125E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="AQ35">
-        <v>3.765625</v>
+        <v>3.3093750000000002</v>
       </c>
       <c r="AR35">
         <v>54</v>
@@ -5407,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>191.69153979357051</v>
+        <v>191.69153979357048</v>
       </c>
       <c r="H36">
-        <v>194.05289999145151</v>
+        <v>194.05289999145154</v>
       </c>
       <c r="I36">
         <v>191.92908026564211</v>
@@ -5494,28 +5494,28 @@
         <v>2</v>
       </c>
       <c r="AJ36">
-        <v>0.67803038564520746</v>
+        <v>0.3921119117884313</v>
       </c>
       <c r="AK36">
-        <v>0.51180965479371909</v>
+        <v>0.44382911285829624</v>
       </c>
       <c r="AL36">
-        <v>0.11452318117845088</v>
+        <v>7.9273212933445844E-2</v>
       </c>
       <c r="AM36">
-        <v>1.6520318251273018</v>
+        <v>1.5503725891877451</v>
       </c>
       <c r="AN36">
-        <v>0.71875</v>
+        <v>0.41562500000000002</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AP36">
-        <v>0.125</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ36">
-        <v>3.140625</v>
+        <v>3.2937500000000002</v>
       </c>
       <c r="AR36">
         <v>64</v>
@@ -5550,13 +5550,13 @@
         <v>196.52002012601997</v>
       </c>
       <c r="H37">
-        <v>198.83091363519233</v>
+        <v>198.8309136351923</v>
       </c>
       <c r="I37">
         <v>196.73964712481029</v>
       </c>
       <c r="J37">
-        <v>196.73964741703531</v>
+        <v>196.73964741703529</v>
       </c>
       <c r="K37">
         <v>0.94299482601996942</v>
@@ -5634,28 +5634,28 @@
         <v>2</v>
       </c>
       <c r="AJ37">
-        <v>0.51754545209616565</v>
+        <v>0.39580791057218007</v>
       </c>
       <c r="AK37">
-        <v>0.38129115898835969</v>
+        <v>0.39400685167669142</v>
       </c>
       <c r="AL37">
-        <v>0.13803472205294268</v>
+        <v>7.9373925716945126E-2</v>
       </c>
       <c r="AM37">
-        <v>1.6605747408098306</v>
+        <v>1.5229702445043376</v>
       </c>
       <c r="AN37">
-        <v>0.578125</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AO37">
-        <v>0.4375</v>
+        <v>0.40156249999999999</v>
       </c>
       <c r="AP37">
-        <v>0.140625</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ37">
-        <v>3.75</v>
+        <v>3.3421875000000001</v>
       </c>
       <c r="AR37">
         <v>59</v>
@@ -5687,13 +5687,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>201.33398046528586</v>
+        <v>201.33398046528583</v>
       </c>
       <c r="H38">
         <v>203.59755551828971</v>
       </c>
       <c r="I38">
-        <v>201.53636192660355</v>
+        <v>201.53636192660358</v>
       </c>
       <c r="J38">
         <v>201.5363621159261</v>
@@ -5774,28 +5774,28 @@
         <v>2</v>
       </c>
       <c r="AJ38">
-        <v>0.24915164212576352</v>
+        <v>0.39487808140222985</v>
       </c>
       <c r="AK38">
-        <v>0.32512056624760888</v>
+        <v>0.34225350305682545</v>
       </c>
       <c r="AL38">
-        <v>0.12426181639033827</v>
+        <v>7.2892288319530221E-2</v>
       </c>
       <c r="AM38">
-        <v>1.8800614409959882</v>
+        <v>1.4563511758538215</v>
       </c>
       <c r="AN38">
-        <v>0.28125</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AO38">
-        <v>0.3125</v>
+        <v>0.35</v>
       </c>
       <c r="AP38">
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AQ38">
-        <v>3.375</v>
+        <v>3.0265624999999998</v>
       </c>
       <c r="AR38">
         <v>52</v>
@@ -5833,10 +5833,10 @@
         <v>208.33738472829572</v>
       </c>
       <c r="I39">
-        <v>206.31980968543095</v>
+        <v>206.31980968543093</v>
       </c>
       <c r="J39">
-        <v>206.31980968870673</v>
+        <v>206.3198096887067</v>
       </c>
       <c r="K39">
         <v>0.9423261731270145</v>
@@ -5914,28 +5914,28 @@
         <v>2</v>
       </c>
       <c r="AJ39">
-        <v>0.26271157628421177</v>
+        <v>0.38594046334936721</v>
       </c>
       <c r="AK39">
-        <v>0.8604468937592934</v>
+        <v>0.69137311616578079</v>
       </c>
       <c r="AL39">
-        <v>0.14163214432796586</v>
+        <v>7.6117567099892008E-2</v>
       </c>
       <c r="AM39">
-        <v>1.683144909147126</v>
+        <v>1.4942563884459985</v>
       </c>
       <c r="AN39">
-        <v>0.296875</v>
+        <v>0.40468749999999998</v>
       </c>
       <c r="AO39">
-        <v>0.859375</v>
+        <v>0.7</v>
       </c>
       <c r="AP39">
-        <v>0.140625</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AQ39">
-        <v>2.9375</v>
+        <v>3.3359375</v>
       </c>
       <c r="AR39">
         <v>55</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>210.91745095757497</v>
+        <v>210.917450957575</v>
       </c>
       <c r="H40">
-        <v>213.06537603889248</v>
+        <v>213.06537603889245</v>
       </c>
       <c r="I40">
-        <v>211.09020698562782</v>
+        <v>211.09020698562784</v>
       </c>
       <c r="J40">
         <v>211.09020703331339</v>
@@ -6054,28 +6054,28 @@
         <v>2</v>
       </c>
       <c r="AJ40">
-        <v>0.28394842753901162</v>
+        <v>0.36692512004546829</v>
       </c>
       <c r="AK40">
-        <v>0.35856029980229576</v>
+        <v>0.37219008928476927</v>
       </c>
       <c r="AL40">
-        <v>8.2276280491168738E-2</v>
+        <v>7.3711654168980012E-2</v>
       </c>
       <c r="AM40">
-        <v>1.6752001739694937</v>
+        <v>1.5351537008580152</v>
       </c>
       <c r="AN40">
-        <v>0.3125</v>
+        <v>0.39218750000000002</v>
       </c>
       <c r="AO40">
-        <v>0.359375</v>
+        <v>0.38593749999999999</v>
       </c>
       <c r="AP40">
-        <v>7.8125E-2</v>
+        <v>7.6562500000000006E-2</v>
       </c>
       <c r="AQ40">
-        <v>3.859375</v>
+        <v>3.4265625000000002</v>
       </c>
       <c r="AR40">
         <v>50</v>
@@ -6107,16 +6107,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>215.69192210097552</v>
+        <v>215.69192210097555</v>
       </c>
       <c r="H41">
-        <v>217.77999485750408</v>
+        <v>217.77999485750405</v>
       </c>
       <c r="I41">
         <v>215.84686832356209</v>
       </c>
       <c r="J41">
-        <v>215.84686834700358</v>
+        <v>215.84686834700364</v>
       </c>
       <c r="K41">
         <v>0.97705890097552128</v>
@@ -6194,28 +6194,28 @@
         <v>2</v>
       </c>
       <c r="AJ41">
-        <v>0.4614993065596506</v>
+        <v>0.38172714084426185</v>
       </c>
       <c r="AK41">
-        <v>0.40533929824606418</v>
+        <v>0.39095028284575839</v>
       </c>
       <c r="AL41">
-        <v>0.14669117977232576</v>
+        <v>0.10210646880774346</v>
       </c>
       <c r="AM41">
-        <v>1.4261774694110054</v>
+        <v>1.5102391222977141</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="AO41">
-        <v>0.421875</v>
+        <v>0.39687499999999998</v>
       </c>
       <c r="AP41">
-        <v>0.140625</v>
+        <v>0.1015625</v>
       </c>
       <c r="AQ41">
-        <v>2.75</v>
+        <v>3.3203125</v>
       </c>
       <c r="AR41">
         <v>49</v>
@@ -6247,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>220.45480526584478</v>
+        <v>220.45480526584475</v>
       </c>
       <c r="H42">
-        <v>222.47925392966715</v>
+        <v>222.47925392966721</v>
       </c>
       <c r="I42">
         <v>220.59010317389226</v>
@@ -6334,28 +6334,28 @@
         <v>2</v>
       </c>
       <c r="AJ42">
-        <v>0.57211266449162035</v>
+        <v>0.43634596059949116</v>
       </c>
       <c r="AK42">
-        <v>0.38932377698547815</v>
+        <v>0.41775396380177288</v>
       </c>
       <c r="AL42">
-        <v>0.11799968439162638</v>
+        <v>9.4686887484255605E-2</v>
       </c>
       <c r="AM42">
-        <v>1.8001393936983527</v>
+        <v>1.5708357268656483</v>
       </c>
       <c r="AN42">
-        <v>0.609375</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="AO42">
-        <v>0.390625</v>
+        <v>0.42812499999999998</v>
       </c>
       <c r="AP42">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AQ42">
-        <v>3.5625</v>
+        <v>3.4312499999999999</v>
       </c>
       <c r="AR42">
         <v>62</v>
@@ -6393,7 +6393,7 @@
         <v>227.16754207696789</v>
       </c>
       <c r="I43">
-        <v>225.32034922259706</v>
+        <v>225.32034922259703</v>
       </c>
       <c r="J43">
         <v>225.32034930937647</v>
@@ -6474,28 +6474,28 @@
         <v>2</v>
       </c>
       <c r="AJ43">
-        <v>0.52170801863372362</v>
+        <v>0.38846944473578449</v>
       </c>
       <c r="AK43">
-        <v>0.42236034008726697</v>
+        <v>0.43358726425911798</v>
       </c>
       <c r="AL43">
-        <v>0.14097655132420805</v>
+        <v>8.1656064561384606E-2</v>
       </c>
       <c r="AM43">
-        <v>1.6368524736127024</v>
+        <v>1.4341978595646836</v>
       </c>
       <c r="AN43">
-        <v>0.546875</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AO43">
-        <v>0.4375</v>
+        <v>0.4609375</v>
       </c>
       <c r="AP43">
-        <v>0.140625</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ43">
-        <v>3.921875</v>
+        <v>3.3093750000000002</v>
       </c>
       <c r="AR43">
         <v>47</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>229.94352939274469</v>
+        <v>229.94352939274467</v>
       </c>
       <c r="H44">
         <v>231.8519875516277</v>
@@ -6536,7 +6536,7 @@
         <v>230.03801243593745</v>
       </c>
       <c r="J44">
-        <v>230.0380126285429</v>
+        <v>230.03801262854284</v>
       </c>
       <c r="K44">
         <v>0.99432269274470286</v>
@@ -6614,28 +6614,28 @@
         <v>22</v>
       </c>
       <c r="AJ44">
-        <v>0.44584333508243668</v>
+        <v>0.34618534295429082</v>
       </c>
       <c r="AK44">
-        <v>0.46345742558506225</v>
+        <v>0.40314134076940078</v>
       </c>
       <c r="AL44">
-        <v>0.10650531723131913</v>
+        <v>8.9246312356528384E-2</v>
       </c>
       <c r="AM44">
-        <v>1.3419732194748328</v>
+        <v>1.468237369125502</v>
       </c>
       <c r="AN44">
-        <v>0.484375</v>
+        <v>0.36562499999999998</v>
       </c>
       <c r="AO44">
-        <v>0.484375</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="AP44">
-        <v>0.109375</v>
+        <v>9.0624999999999997E-2</v>
       </c>
       <c r="AQ44">
-        <v>2.9375</v>
+        <v>3.1656249999999999</v>
       </c>
       <c r="AR44">
         <v>43</v>
@@ -6673,7 +6673,7 @@
         <v>236.524135369818</v>
       </c>
       <c r="I45">
-        <v>234.74333176141184</v>
+        <v>234.74333176141187</v>
       </c>
       <c r="J45">
         <v>234.74333210161018</v>
@@ -6754,28 +6754,28 @@
         <v>2</v>
       </c>
       <c r="AJ45">
-        <v>0.48953745411811195</v>
+        <v>0.3694260365638723</v>
       </c>
       <c r="AK45">
-        <v>0.3678678601623972</v>
+        <v>0.37482318331298231</v>
       </c>
       <c r="AL45">
-        <v>0.11698229642297681</v>
+        <v>8.3555719347470955E-2</v>
       </c>
       <c r="AM45">
-        <v>2.1266622361751346</v>
+        <v>1.4109141545402382</v>
       </c>
       <c r="AN45">
-        <v>0.53125</v>
+        <v>0.39218750000000002</v>
       </c>
       <c r="AO45">
-        <v>0.375</v>
+        <v>0.38593749999999999</v>
       </c>
       <c r="AP45">
-        <v>0.125</v>
+        <v>9.0624999999999997E-2</v>
       </c>
       <c r="AQ45">
-        <v>4.25</v>
+        <v>3.3046875</v>
       </c>
       <c r="AR45">
         <v>44</v>
@@ -6807,13 +6807,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>239.38152779276399</v>
+        <v>239.38152779276396</v>
       </c>
       <c r="H46">
         <v>241.18868588762831</v>
       </c>
       <c r="I46">
-        <v>239.43648722638707</v>
+        <v>239.4364872263871</v>
       </c>
       <c r="J46">
         <v>239.43648721802612</v>
@@ -6894,28 +6894,28 @@
         <v>2</v>
       </c>
       <c r="AJ46">
-        <v>0.43472936581961313</v>
+        <v>0.3451522029959167</v>
       </c>
       <c r="AK46">
-        <v>0.40408135511458765</v>
+        <v>0.35191118543757294</v>
       </c>
       <c r="AL46">
-        <v>0.14748404958900349</v>
+        <v>6.8143231539651503E-2</v>
       </c>
       <c r="AM46">
-        <v>1.6841212423679865</v>
+        <v>1.5612287857662688</v>
       </c>
       <c r="AN46">
-        <v>0.46875</v>
+        <v>0.3671875</v>
       </c>
       <c r="AO46">
-        <v>0.421875</v>
+        <v>0.36406250000000001</v>
       </c>
       <c r="AP46">
-        <v>0.140625</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="AQ46">
-        <v>3.484375</v>
+        <v>3.3859374999999998</v>
       </c>
       <c r="AR46">
         <v>42</v>
@@ -6950,13 +6950,13 @@
         <v>244.08076338869645</v>
       </c>
       <c r="H47">
-        <v>245.83357273062373</v>
+        <v>245.83357273062376</v>
       </c>
       <c r="I47">
-        <v>244.11779273039386</v>
+        <v>244.11779273039389</v>
       </c>
       <c r="J47">
-        <v>244.11779271437737</v>
+        <v>244.11779271437734</v>
       </c>
       <c r="K47">
         <v>1.0124489886964625</v>
@@ -7034,28 +7034,28 @@
         <v>2</v>
       </c>
       <c r="AJ47">
-        <v>0.37899979087737845</v>
+        <v>0.33568946720692339</v>
       </c>
       <c r="AK47">
-        <v>0.38868261729149001</v>
+        <v>0.33950981741157238</v>
       </c>
       <c r="AL47">
-        <v>0.1152807695712473</v>
+        <v>0.11830855766785117</v>
       </c>
       <c r="AM47">
-        <v>1.8428629528370755</v>
+        <v>1.5183046446233968</v>
       </c>
       <c r="AN47">
-        <v>0.421875</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AO47">
-        <v>0.390625</v>
+        <v>0.35312500000000002</v>
       </c>
       <c r="AP47">
-        <v>0.109375</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="AQ47">
-        <v>3.28125</v>
+        <v>3.234375</v>
       </c>
       <c r="AR47">
         <v>40</v>
@@ -7087,13 +7087,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>248.76699305606212</v>
+        <v>248.76699305606218</v>
       </c>
       <c r="H48">
-        <v>250.46043655351957</v>
+        <v>250.46043655351963</v>
       </c>
       <c r="I48">
-        <v>248.78740173406061</v>
+        <v>248.78740173406055</v>
       </c>
       <c r="J48">
         <v>248.78740166720235</v>
@@ -7174,28 +7174,28 @@
         <v>2</v>
       </c>
       <c r="AJ48">
-        <v>0.47152789092779879</v>
+        <v>0.39644163132898858</v>
       </c>
       <c r="AK48">
-        <v>0.41923119852921364</v>
+        <v>0.35618362057324821</v>
       </c>
       <c r="AL48">
-        <v>7.6047184734818404E-2</v>
+        <v>8.3653545458831718E-2</v>
       </c>
       <c r="AM48">
-        <v>1.7747127129875411</v>
+        <v>1.4900710666606369</v>
       </c>
       <c r="AN48">
-        <v>0.515625</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AO48">
-        <v>0.453125</v>
+        <v>0.36406250000000001</v>
       </c>
       <c r="AP48">
-        <v>7.8125E-2</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="AQ48">
-        <v>3.390625</v>
+        <v>3.4109375000000002</v>
       </c>
       <c r="AR48">
         <v>48</v>
@@ -7233,10 +7233,10 @@
         <v>255.07135496435723</v>
       </c>
       <c r="I49">
-        <v>253.44522911643955</v>
+        <v>253.44522911643952</v>
       </c>
       <c r="J49">
-        <v>253.44522905959616</v>
+        <v>253.44522905959622</v>
       </c>
       <c r="K49">
         <v>0.9730823961508861</v>
@@ -7314,28 +7314,28 @@
         <v>2</v>
       </c>
       <c r="AJ49">
-        <v>0.414704271105027</v>
+        <v>0.36732639954685664</v>
       </c>
       <c r="AK49">
-        <v>0.40186664391549393</v>
+        <v>0.36383830530535061</v>
       </c>
       <c r="AL49">
-        <v>0.16091729136169616</v>
+        <v>0.10521644107323905</v>
       </c>
       <c r="AM49">
-        <v>1.5780447548069336</v>
+        <v>1.4628986614501291</v>
       </c>
       <c r="AN49">
-        <v>0.453125</v>
+        <v>0.3984375</v>
       </c>
       <c r="AO49">
-        <v>0.40625</v>
+        <v>0.37656250000000002</v>
       </c>
       <c r="AP49">
-        <v>0.15625</v>
+        <v>0.1046875</v>
       </c>
       <c r="AQ49">
-        <v>3.46875</v>
+        <v>3.3921874999999999</v>
       </c>
       <c r="AR49">
         <v>44</v>
@@ -7367,16 +7367,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>258.09994448227701</v>
+        <v>258.09994448227695</v>
       </c>
       <c r="H50">
-        <v>259.67440721792502</v>
+        <v>259.67440721792497</v>
       </c>
       <c r="I50">
         <v>258.09178477205427</v>
       </c>
       <c r="J50">
-        <v>258.09178471011842</v>
+        <v>258.09178471011836</v>
       </c>
       <c r="K50">
         <v>0.98461518227702527</v>
@@ -7454,28 +7454,28 @@
         <v>2</v>
       </c>
       <c r="AJ50">
-        <v>0.48691957246612022</v>
+        <v>0.37643667266773734</v>
       </c>
       <c r="AK50">
-        <v>0.36390800144204799</v>
+        <v>0.32535287161333215</v>
       </c>
       <c r="AL50">
-        <v>0.10312856422566255</v>
+        <v>8.8038336288964875E-2</v>
       </c>
       <c r="AM50">
-        <v>1.4906238012334385</v>
+        <v>1.4762745379159576</v>
       </c>
       <c r="AN50">
-        <v>0.515625</v>
+        <v>0.39531250000000001</v>
       </c>
       <c r="AO50">
-        <v>0.375</v>
+        <v>0.33281250000000001</v>
       </c>
       <c r="AP50">
-        <v>0.109375</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="AQ50">
-        <v>3.46875</v>
+        <v>3.2156250000000002</v>
       </c>
       <c r="AR50">
         <v>40</v>
@@ -7510,13 +7510,13 @@
         <v>262.74574585136446</v>
       </c>
       <c r="H51">
-        <v>264.23689576425102</v>
+        <v>264.23689576425107</v>
       </c>
       <c r="I51">
-        <v>262.72635928067592</v>
+        <v>262.72635928067587</v>
       </c>
       <c r="J51">
-        <v>262.72635924866535</v>
+        <v>262.72635924866529</v>
       </c>
       <c r="K51">
         <v>0.97233405136444162</v>
@@ -7594,28 +7594,28 @@
         <v>2</v>
       </c>
       <c r="AJ51">
-        <v>0.42917959784308618</v>
+        <v>0.33451359734836716</v>
       </c>
       <c r="AK51">
-        <v>0.42517291105104005</v>
+        <v>0.36959558044080765</v>
       </c>
       <c r="AL51">
-        <v>0.11193256244491287</v>
+        <v>9.7430958019127101E-2</v>
       </c>
       <c r="AM51">
-        <v>1.5150959590581528</v>
+        <v>1.5277063754078628</v>
       </c>
       <c r="AN51">
-        <v>0.453125</v>
+        <v>0.359375</v>
       </c>
       <c r="AO51">
-        <v>0.4375</v>
+        <v>0.37812499999999999</v>
       </c>
       <c r="AP51">
-        <v>0.125</v>
+        <v>9.6875000000000003E-2</v>
       </c>
       <c r="AQ51">
-        <v>3.5</v>
+        <v>3.6578124999999999</v>
       </c>
       <c r="AR51">
         <v>44</v>
@@ -7647,16 +7647,16 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>267.37696156806561</v>
+        <v>267.37696156806567</v>
       </c>
       <c r="H52">
-        <v>268.78704317147037</v>
+        <v>268.78704317147043</v>
       </c>
       <c r="I52">
         <v>267.34624094842184</v>
       </c>
       <c r="J52">
-        <v>267.34624090199611</v>
+        <v>267.34624090199617</v>
       </c>
       <c r="K52">
         <v>0.95904496806559791</v>
@@ -7734,28 +7734,28 @@
         <v>2</v>
       </c>
       <c r="AJ52">
-        <v>0.41391909905355978</v>
+        <v>0.34964277432285884</v>
       </c>
       <c r="AK52">
-        <v>1.130945401034323</v>
+        <v>1.0749837143580188</v>
       </c>
       <c r="AL52">
-        <v>0.15954580619336531</v>
+        <v>0.11135417959655229</v>
       </c>
       <c r="AM52">
-        <v>2.0327052384575217</v>
+        <v>1.6452264546181461</v>
       </c>
       <c r="AN52">
-        <v>0.453125</v>
+        <v>0.37187500000000001</v>
       </c>
       <c r="AO52">
-        <v>1.140625</v>
+        <v>1.0890625</v>
       </c>
       <c r="AP52">
-        <v>0.15625</v>
+        <v>0.11093749999999999</v>
       </c>
       <c r="AQ52">
-        <v>3.71875</v>
+        <v>3.2531249999999998</v>
       </c>
       <c r="AR52">
         <v>42</v>
@@ -7787,16 +7787,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>271.99418924398447</v>
+        <v>271.99418924398452</v>
       </c>
       <c r="H53">
-        <v>273.32925207802953</v>
+        <v>273.32925207802958</v>
       </c>
       <c r="I53">
         <v>271.94995561825039</v>
       </c>
       <c r="J53">
-        <v>271.94995558375524</v>
+        <v>271.94995558375518</v>
       </c>
       <c r="K53">
         <v>0.99720064398445629</v>
@@ -7874,28 +7874,28 @@
         <v>2</v>
       </c>
       <c r="AJ53">
-        <v>0.48626814908518473</v>
+        <v>0.37738244268271914</v>
       </c>
       <c r="AK53">
-        <v>0.4168137795129111</v>
+        <v>0.42372770727348363</v>
       </c>
       <c r="AL53">
-        <v>0.113736084685681</v>
+        <v>0.11315074811315884</v>
       </c>
       <c r="AM53">
-        <v>1.6975163160548441</v>
+        <v>1.6688621732728159</v>
       </c>
       <c r="AN53">
-        <v>0.515625</v>
+        <v>0.39687499999999998</v>
       </c>
       <c r="AO53">
-        <v>0.421875</v>
+        <v>0.4375</v>
       </c>
       <c r="AP53">
-        <v>0.109375</v>
+        <v>0.11562500000000001</v>
       </c>
       <c r="AQ53">
-        <v>3.171875</v>
+        <v>3.6375000000000002</v>
       </c>
       <c r="AR53">
         <v>45</v>
@@ -7927,16 +7927,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>276.59806323824512</v>
+        <v>276.59806323824517</v>
       </c>
       <c r="H54">
         <v>277.866164977484</v>
       </c>
       <c r="I54">
-        <v>276.53781132090472</v>
+        <v>276.53781132090478</v>
       </c>
       <c r="J54">
-        <v>276.53781122124985</v>
+        <v>276.5378112212498</v>
       </c>
       <c r="K54">
         <v>0.96400503824509087</v>
@@ -8014,28 +8014,28 @@
         <v>2</v>
       </c>
       <c r="AJ54">
-        <v>0.48989540020039851</v>
+        <v>0.34680956976717703</v>
       </c>
       <c r="AK54">
-        <v>0.44477206275731385</v>
+        <v>0.41949488369437588</v>
       </c>
       <c r="AL54">
-        <v>0.10429830379743588</v>
+        <v>9.9424397575580289E-2</v>
       </c>
       <c r="AM54">
-        <v>1.8401940734905644</v>
+        <v>1.4884609771641784</v>
       </c>
       <c r="AN54">
-        <v>0.515625</v>
+        <v>0.36875000000000002</v>
       </c>
       <c r="AO54">
-        <v>0.453125</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="AP54">
-        <v>9.375E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ54">
-        <v>3.65625</v>
+        <v>3.0640624999999999</v>
       </c>
       <c r="AR54">
         <v>39</v>
@@ -8070,13 +8070,13 @@
         <v>281.1874796305238</v>
       </c>
       <c r="H55">
-        <v>282.39717335909904</v>
+        <v>282.39717335909899</v>
       </c>
       <c r="I55">
-        <v>281.11054208209708</v>
+        <v>281.11054208209714</v>
       </c>
       <c r="J55">
-        <v>281.11054203022945</v>
+        <v>281.1105420302294</v>
       </c>
       <c r="K55">
         <v>0.96056023052381079</v>
@@ -8154,28 +8154,28 @@
         <v>2</v>
       </c>
       <c r="AJ55">
-        <v>0.42455484465268323</v>
+        <v>0.33071829704305344</v>
       </c>
       <c r="AK55">
-        <v>0.39828205124915483</v>
+        <v>0.36113997248680713</v>
       </c>
       <c r="AL55">
-        <v>0.18360966172170784</v>
+        <v>9.8565805059181583E-2</v>
       </c>
       <c r="AM55">
-        <v>1.9364193460235268</v>
+        <v>1.5271054985651635</v>
       </c>
       <c r="AN55">
-        <v>0.46875</v>
+        <v>0.35312500000000002</v>
       </c>
       <c r="AO55">
-        <v>0.40625</v>
+        <v>0.37031249999999999</v>
       </c>
       <c r="AP55">
-        <v>0.1875</v>
+        <v>9.6875000000000003E-2</v>
       </c>
       <c r="AQ55">
-        <v>3.78125</v>
+        <v>3.1906249999999998</v>
       </c>
       <c r="AR55">
         <v>39</v>
@@ -8207,13 +8207,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>285.76183456217615</v>
+        <v>285.7618345621762</v>
       </c>
       <c r="H56">
         <v>286.91818379858165</v>
       </c>
       <c r="I56">
-        <v>285.66852661015275</v>
+        <v>285.6685266101527</v>
       </c>
       <c r="J56">
         <v>285.66852652504264</v>
@@ -8294,28 +8294,28 @@
         <v>2</v>
       </c>
       <c r="AJ56">
-        <v>0.51887844843844422</v>
+        <v>0.35297229404155583</v>
       </c>
       <c r="AK56">
-        <v>0.36241174832926421</v>
+        <v>0.3078612100865456</v>
       </c>
       <c r="AL56">
-        <v>0.13059002087377333</v>
+        <v>0.10640754614585968</v>
       </c>
       <c r="AM56">
-        <v>1.8974654466564116</v>
+        <v>1.5272684030961803</v>
       </c>
       <c r="AN56">
-        <v>0.578125</v>
+        <v>0.375</v>
       </c>
       <c r="AO56">
-        <v>0.359375</v>
+        <v>0.31718750000000001</v>
       </c>
       <c r="AP56">
-        <v>0.125</v>
+        <v>0.10625</v>
       </c>
       <c r="AQ56">
-        <v>3.78125</v>
+        <v>3.765625</v>
       </c>
       <c r="AR56">
         <v>44</v>
@@ -8356,7 +8356,7 @@
         <v>290.2121390972174</v>
       </c>
       <c r="J57">
-        <v>290.21213911683651</v>
+        <v>290.21213911683657</v>
       </c>
       <c r="K57">
         <v>0.94202232578470557</v>
@@ -8434,28 +8434,28 @@
         <v>2</v>
       </c>
       <c r="AJ57">
-        <v>0.42477198577966174</v>
+        <v>0.31669118734277657</v>
       </c>
       <c r="AK57">
-        <v>0.37615803255384905</v>
+        <v>0.3297241913068189</v>
       </c>
       <c r="AL57">
-        <v>0.12376114091144105</v>
+        <v>9.5148017321315809E-2</v>
       </c>
       <c r="AM57">
-        <v>1.6461943531760337</v>
+        <v>1.4913131054594344</v>
       </c>
       <c r="AN57">
-        <v>0.453125</v>
+        <v>0.34062500000000001</v>
       </c>
       <c r="AO57">
-        <v>0.390625</v>
+        <v>0.34062500000000001</v>
       </c>
       <c r="AP57">
-        <v>0.125</v>
+        <v>9.5312499999999994E-2</v>
       </c>
       <c r="AQ57">
-        <v>3.46875</v>
+        <v>3.4375</v>
       </c>
       <c r="AR57">
         <v>37</v>
@@ -8487,13 +8487,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>294.86107364369963</v>
+        <v>294.86107364369957</v>
       </c>
       <c r="H58">
-        <v>295.88071293873429</v>
+        <v>295.88071293873423</v>
       </c>
       <c r="I58">
-        <v>294.74074097916525</v>
+        <v>294.74074097916531</v>
       </c>
       <c r="J58">
         <v>294.74074227921523</v>
@@ -8574,28 +8574,28 @@
         <v>2</v>
       </c>
       <c r="AJ58">
-        <v>0.43191454967432036</v>
+        <v>0.34479858565894866</v>
       </c>
       <c r="AK58">
-        <v>0.80484561490389983</v>
+        <v>0.79082442394051911</v>
       </c>
       <c r="AL58">
-        <v>0.1219794290054359</v>
+        <v>0.10248757367829706</v>
       </c>
       <c r="AM58">
-        <v>1.5699989864609138</v>
+        <v>1.4758891030371959</v>
       </c>
       <c r="AN58">
-        <v>0.46875</v>
+        <v>0.36875000000000002</v>
       </c>
       <c r="AO58">
-        <v>0.8125</v>
+        <v>0.79843750000000002</v>
       </c>
       <c r="AP58">
-        <v>0.125</v>
+        <v>0.10781250000000001</v>
       </c>
       <c r="AQ58">
-        <v>2.625</v>
+        <v>3.1828124999999998</v>
       </c>
       <c r="AR58">
         <v>38</v>
@@ -8627,16 +8627,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>299.38570704769029</v>
+        <v>299.38570704769023</v>
       </c>
       <c r="H59">
-        <v>300.34079565524246</v>
+        <v>300.3407956552424</v>
       </c>
       <c r="I59">
-        <v>299.25516431467736</v>
+        <v>299.2551643146773</v>
       </c>
       <c r="J59">
-        <v>299.25516420649615</v>
+        <v>299.2551642064962</v>
       </c>
       <c r="K59">
         <v>0.92990754769027717</v>
@@ -8714,28 +8714,28 @@
         <v>2</v>
       </c>
       <c r="AJ59">
-        <v>0.51950774074439954</v>
+        <v>0.35981912753862771</v>
       </c>
       <c r="AK59">
-        <v>0.48752352629492446</v>
+        <v>0.38851104488871402</v>
       </c>
       <c r="AL59">
-        <v>0.1000468922197404</v>
+        <v>8.5693300066040645E-2</v>
       </c>
       <c r="AM59">
-        <v>1.7016487330119945</v>
+        <v>1.5301803817271087</v>
       </c>
       <c r="AN59">
-        <v>0.5625</v>
+        <v>0.38906249999999998</v>
       </c>
       <c r="AO59">
-        <v>0.484375</v>
+        <v>0.39687499999999998</v>
       </c>
       <c r="AP59">
-        <v>0.109375</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="AQ59">
-        <v>3.5625</v>
+        <v>3.03125</v>
       </c>
       <c r="AR59">
         <v>48</v>
@@ -8767,13 +8767,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>303.89524756521786</v>
+        <v>303.8952475652178</v>
       </c>
       <c r="H60">
-        <v>304.79707615353971</v>
+        <v>304.79707615353976</v>
       </c>
       <c r="I60">
-        <v>303.75658953569007</v>
+        <v>303.75658953569013</v>
       </c>
       <c r="J60">
         <v>303.75659002277149</v>
@@ -8854,28 +8854,28 @@
         <v>2</v>
       </c>
       <c r="AJ60">
-        <v>0.82120047931418039</v>
+        <v>0.64126754415084863</v>
       </c>
       <c r="AK60">
-        <v>0.34929956751389124</v>
+        <v>0.33989746540564003</v>
       </c>
       <c r="AL60">
-        <v>0.15972413775407437</v>
+        <v>0.10476146947007434</v>
       </c>
       <c r="AM60">
-        <v>1.5247463907103369</v>
+        <v>1.5062446416148425</v>
       </c>
       <c r="AN60">
-        <v>0.859375</v>
+        <v>0.66562500000000002</v>
       </c>
       <c r="AO60">
-        <v>0.359375</v>
+        <v>0.3515625</v>
       </c>
       <c r="AP60">
-        <v>0.15625</v>
+        <v>0.10625</v>
       </c>
       <c r="AQ60">
-        <v>3.5625</v>
+        <v>3.3984375</v>
       </c>
       <c r="AR60">
         <v>136</v>
@@ -8907,16 +8907,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>308.39180425938122</v>
+        <v>308.39180425938127</v>
       </c>
       <c r="H61">
-        <v>309.23918679935178</v>
+        <v>309.23918679935184</v>
       </c>
       <c r="I61">
         <v>308.24504545420041</v>
       </c>
       <c r="J61">
-        <v>308.24504536447449</v>
+        <v>308.24504536447455</v>
       </c>
       <c r="K61">
         <v>0.88264795938124507</v>
@@ -8994,28 +8994,28 @@
         <v>4</v>
       </c>
       <c r="AJ61">
-        <v>0.39902007448870802</v>
+        <v>0.33879119641975669</v>
       </c>
       <c r="AK61">
-        <v>0.70857992910358236</v>
+        <v>0.75459742630726956</v>
       </c>
       <c r="AL61">
-        <v>0.16268809810031984</v>
+        <v>9.0017246262320882E-2</v>
       </c>
       <c r="AM61">
-        <v>1.8132130856876734</v>
+        <v>1.5210276424516571</v>
       </c>
       <c r="AN61">
-        <v>0.421875</v>
+        <v>0.36093750000000002</v>
       </c>
       <c r="AO61">
-        <v>0.71875</v>
+        <v>0.77187499999999998</v>
       </c>
       <c r="AP61">
-        <v>0.15625</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="AQ61">
-        <v>3.1875</v>
+        <v>3.4109375000000002</v>
       </c>
       <c r="AR61">
         <v>37</v>
@@ -9047,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>312.87473269132596</v>
+        <v>312.8747326913259</v>
       </c>
       <c r="H62">
-        <v>313.67204133945438</v>
+        <v>313.67204133945432</v>
       </c>
       <c r="I62">
         <v>312.71917841458207</v>
@@ -9134,28 +9134,28 @@
         <v>2</v>
       </c>
       <c r="AJ62">
-        <v>0.50312304749392833</v>
+        <v>0.42137458836857161</v>
       </c>
       <c r="AK62">
-        <v>0.38287401195976123</v>
+        <v>0.37103230923828101</v>
       </c>
       <c r="AL62">
-        <v>0.15902299963948799</v>
+        <v>9.3685821660753801E-2</v>
       </c>
       <c r="AM62">
-        <v>1.7472631237274632</v>
+        <v>1.6321038675954054</v>
       </c>
       <c r="AN62">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="AO62">
-        <v>0.390625</v>
+        <v>0.4609375</v>
       </c>
       <c r="AP62">
-        <v>0.15625</v>
+        <v>9.2187500000000006E-2</v>
       </c>
       <c r="AQ62">
-        <v>4.71875</v>
+        <v>3.8203125</v>
       </c>
       <c r="AR62">
         <v>59</v>
@@ -9190,13 +9190,13 @@
         <v>317.3443643463151</v>
       </c>
       <c r="H63">
-        <v>318.10106294030192</v>
+        <v>318.10106294030186</v>
       </c>
       <c r="I63">
-        <v>317.17714335538847</v>
+        <v>317.17714335538852</v>
       </c>
       <c r="J63">
-        <v>317.17714330261958</v>
+        <v>317.17714330261964</v>
       </c>
       <c r="K63">
         <v>0.85639154631508063</v>
@@ -9274,28 +9274,28 @@
         <v>2</v>
       </c>
       <c r="AJ63">
-        <v>0.51980859506804178</v>
+        <v>0.37444823667632421</v>
       </c>
       <c r="AK63">
-        <v>0.28983433126306213</v>
+        <v>0.28269969276186202</v>
       </c>
       <c r="AL63">
-        <v>0.15462019867932009</v>
+        <v>8.155480651759249E-2</v>
       </c>
       <c r="AM63">
-        <v>1.9690274001952666</v>
+        <v>1.6129574693764177</v>
       </c>
       <c r="AN63">
-        <v>0.546875</v>
+        <v>0.40468749999999998</v>
       </c>
       <c r="AO63">
-        <v>0.3125</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AP63">
-        <v>0.15625</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ63">
-        <v>3.109375</v>
+        <v>3.7484375000000001</v>
       </c>
       <c r="AR63">
         <v>45</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>321.80007078387382</v>
+        <v>321.80007078387376</v>
       </c>
       <c r="H64">
         <v>322.5149553262554</v>
@@ -9336,7 +9336,7 @@
         <v>321.61773330935699</v>
       </c>
       <c r="J64">
-        <v>321.61773344521521</v>
+        <v>321.61773344521515</v>
       </c>
       <c r="K64">
         <v>0.84709918387380867</v>
@@ -9414,28 +9414,28 @@
         <v>2</v>
       </c>
       <c r="AJ64">
-        <v>0.50788090787442897</v>
+        <v>0.45825313997761868</v>
       </c>
       <c r="AK64">
-        <v>0.29764178962777454</v>
+        <v>0.28829925937615164</v>
       </c>
       <c r="AL64">
-        <v>0.12678668337937024</v>
+        <v>8.2041435291876241E-2</v>
       </c>
       <c r="AM64">
-        <v>1.7279295449209504</v>
+        <v>1.5392389192684406</v>
       </c>
       <c r="AN64">
-        <v>0.546875</v>
+        <v>0.47968749999999999</v>
       </c>
       <c r="AO64">
-        <v>0.3125</v>
+        <v>0.29843750000000002</v>
       </c>
       <c r="AP64">
-        <v>0.109375</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="AQ64">
-        <v>3.484375</v>
+        <v>3.5453125000000001</v>
       </c>
       <c r="AR64">
         <v>62</v>
@@ -9470,13 +9470,13 @@
         <v>326.24047977049759</v>
       </c>
       <c r="H65">
-        <v>326.91464724851653</v>
+        <v>326.91464724851647</v>
       </c>
       <c r="I65">
         <v>326.0411396411933</v>
       </c>
       <c r="J65">
-        <v>326.04113960448387</v>
+        <v>326.04113960448382</v>
       </c>
       <c r="K65">
         <v>0.82334657049756288</v>
@@ -9554,28 +9554,28 @@
         <v>2</v>
       </c>
       <c r="AJ65">
-        <v>0.55318129391735427</v>
+        <v>0.42438089703015958</v>
       </c>
       <c r="AK65">
-        <v>0.2859492050132979</v>
+        <v>0.28072084693677579</v>
       </c>
       <c r="AL65">
-        <v>0.1664154201632696</v>
+        <v>0.1104865100999847</v>
       </c>
       <c r="AM65">
-        <v>1.7209839155195927</v>
+        <v>1.5541093541969166</v>
       </c>
       <c r="AN65">
-        <v>0.609375</v>
+        <v>0.44374999999999998</v>
       </c>
       <c r="AO65">
-        <v>0.28125</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AP65">
-        <v>0.171875</v>
+        <v>0.1125</v>
       </c>
       <c r="AQ65">
-        <v>3.65625</v>
+        <v>3.3843749999999999</v>
       </c>
       <c r="AR65">
         <v>57</v>
@@ -9610,13 +9610,13 @@
         <v>330.6648658828754</v>
       </c>
       <c r="H66">
-        <v>331.30239228426274</v>
+        <v>331.30239228426268</v>
       </c>
       <c r="I66">
         <v>330.44861472772806</v>
       </c>
       <c r="J66">
-        <v>330.44861474772296</v>
+        <v>330.4486147477229</v>
       </c>
       <c r="K66">
         <v>0.8177184828754207</v>
@@ -9694,28 +9694,28 @@
         <v>2</v>
       </c>
       <c r="AJ66">
-        <v>0.52714713123535017</v>
+        <v>0.38734219926569474</v>
       </c>
       <c r="AK66">
-        <v>0.2382929820757537</v>
+        <v>0.25914233121868563</v>
       </c>
       <c r="AL66">
-        <v>0.13352511460047958</v>
+        <v>8.7892270678756074E-2</v>
       </c>
       <c r="AM66">
-        <v>1.8483767979092869</v>
+        <v>1.5510565059656287</v>
       </c>
       <c r="AN66">
-        <v>0.546875</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="AO66">
-        <v>0.25</v>
+        <v>0.27187499999999998</v>
       </c>
       <c r="AP66">
-        <v>0.140625</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="AQ66">
-        <v>3.890625</v>
+        <v>3.46875</v>
       </c>
       <c r="AR66">
         <v>50</v>
@@ -9834,28 +9834,28 @@
         <v>2</v>
       </c>
       <c r="AJ67">
-        <v>0.47907939859926335</v>
+        <v>0.44858641269083704</v>
       </c>
       <c r="AK67">
-        <v>0.25418726353427495</v>
+        <v>0.24676084915630589</v>
       </c>
       <c r="AL67">
-        <v>0.11422393055589411</v>
+        <v>9.2403241155477114E-2</v>
       </c>
       <c r="AM67">
-        <v>2.0150763939049097</v>
+        <v>1.6019347759637714</v>
       </c>
       <c r="AN67">
-        <v>0.515625</v>
+        <v>0.47031250000000002</v>
       </c>
       <c r="AO67">
-        <v>0.265625</v>
+        <v>0.2578125</v>
       </c>
       <c r="AP67">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AQ67">
-        <v>3.890625</v>
+        <v>3.1984374999999998</v>
       </c>
       <c r="AR67">
         <v>51</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>339.45875236789732</v>
+        <v>339.45875236789738</v>
       </c>
       <c r="H68">
         <v>339.99998229300394</v>
       </c>
       <c r="I68">
-        <v>339.21889927193558</v>
+        <v>339.21889927193564</v>
       </c>
       <c r="J68">
-        <v>339.21889921379415</v>
+        <v>339.21889921379409</v>
       </c>
       <c r="K68">
         <v>0.80416406789731809</v>
@@ -9974,28 +9974,28 @@
         <v>2</v>
       </c>
       <c r="AJ68">
-        <v>0.52363374289720788</v>
+        <v>0.5166489457071497</v>
       </c>
       <c r="AK68">
-        <v>0.25829530423492553</v>
+        <v>0.24257607263123698</v>
       </c>
       <c r="AL68">
-        <v>0.11234631732497527</v>
+        <v>0.10262202845168207</v>
       </c>
       <c r="AM68">
-        <v>2.7425591477034361</v>
+        <v>1.6626797554796255</v>
       </c>
       <c r="AN68">
-        <v>0.5625</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="AO68">
-        <v>0.265625</v>
+        <v>0.25</v>
       </c>
       <c r="AP68">
-        <v>0.109375</v>
+        <v>0.10625</v>
       </c>
       <c r="AQ68">
-        <v>5.96875</v>
+        <v>3.5703125</v>
       </c>
       <c r="AR68">
         <v>75</v>
@@ -10027,16 +10027,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>343.82597144504945</v>
+        <v>343.8259714450495</v>
       </c>
       <c r="H69">
-        <v>344.31577666706823</v>
+        <v>344.31577666706829</v>
       </c>
       <c r="I69">
-        <v>343.58167435935127</v>
+        <v>343.58167435935133</v>
       </c>
       <c r="J69">
-        <v>343.58167458377949</v>
+        <v>343.58167458377955</v>
       </c>
       <c r="K69">
         <v>0.8310053450494479</v>
@@ -10114,28 +10114,28 @@
         <v>2</v>
       </c>
       <c r="AJ69">
-        <v>0.69797497456530078</v>
+        <v>0.72411772875353164</v>
       </c>
       <c r="AK69">
-        <v>0.21628988244229563</v>
+        <v>0.23311057846664468</v>
       </c>
       <c r="AL69">
-        <v>0.15369133501059085</v>
+        <v>0.10605697585170459</v>
       </c>
       <c r="AM69">
-        <v>2.2410667434732572</v>
+        <v>1.61347970044041</v>
       </c>
       <c r="AN69">
-        <v>0.734375</v>
+        <v>0.75468749999999996</v>
       </c>
       <c r="AO69">
-        <v>0.21875</v>
+        <v>0.24687500000000001</v>
       </c>
       <c r="AP69">
-        <v>0.15625</v>
+        <v>0.10625</v>
       </c>
       <c r="AQ69">
-        <v>4.625</v>
+        <v>3.2562500000000001</v>
       </c>
       <c r="AR69">
         <v>129</v>
@@ -10173,10 +10173,10 @@
         <v>348.59163521820022</v>
       </c>
       <c r="I70">
-        <v>347.92805917462937</v>
+        <v>347.92805917462931</v>
       </c>
       <c r="J70">
-        <v>347.92805922669845</v>
+        <v>347.92805922669851</v>
       </c>
       <c r="K70">
         <v>0.81984710883796197</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>1.0000000453169777</v>
+        <v>1.0000000453169775</v>
       </c>
       <c r="AF70">
         <v>5.2189363941579359E-11</v>
@@ -10254,28 +10254,28 @@
         <v>4</v>
       </c>
       <c r="AJ70">
-        <v>0.57125372219021953</v>
+        <v>0.5031902217509463</v>
       </c>
       <c r="AK70">
-        <v>0.28384001734563097</v>
+        <v>0.2752919467941421</v>
       </c>
       <c r="AL70">
-        <v>0.15427732738723737</v>
+        <v>8.5890106957617549E-2</v>
       </c>
       <c r="AM70">
-        <v>1.6446054061405073</v>
+        <v>1.6734286320028662</v>
       </c>
       <c r="AN70">
-        <v>0.609375</v>
+        <v>0.5390625</v>
       </c>
       <c r="AO70">
-        <v>0.28125</v>
+        <v>0.27968749999999998</v>
       </c>
       <c r="AP70">
-        <v>0.15625</v>
+        <v>8.4375000000000006E-2</v>
       </c>
       <c r="AQ70">
-        <v>2.78125</v>
+        <v>3.6828124999999998</v>
       </c>
       <c r="AR70">
         <v>65</v>
@@ -10313,7 +10313,7 @@
         <v>352.85235054438812</v>
       </c>
       <c r="I71">
-        <v>352.25487524675793</v>
+        <v>352.25487524675788</v>
       </c>
       <c r="J71">
         <v>352.25487521768537</v>
@@ -10394,28 +10394,28 @@
         <v>2</v>
       </c>
       <c r="AJ71">
-        <v>0.64561220968199251</v>
+        <v>0.48331291814648702</v>
       </c>
       <c r="AK71">
-        <v>0.70149894733060747</v>
+        <v>0.70046658243998849</v>
       </c>
       <c r="AL71">
-        <v>0.10805417173970777</v>
+        <v>8.0646178350792894E-2</v>
       </c>
       <c r="AM71">
-        <v>2.1275436302917323</v>
+        <v>1.7074099911571612</v>
       </c>
       <c r="AN71">
-        <v>0.6875</v>
+        <v>0.52656250000000004</v>
       </c>
       <c r="AO71">
-        <v>0.703125</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="AP71">
-        <v>0.109375</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ71">
-        <v>3.734375</v>
+        <v>3.7281249999999999</v>
       </c>
       <c r="AR71">
         <v>65</v>
@@ -10447,16 +10447,16 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>356.79937898790951</v>
+        <v>356.79937898790956</v>
       </c>
       <c r="H72">
         <v>357.10126429513724</v>
       </c>
       <c r="I72">
-        <v>356.56048005750273</v>
+        <v>356.56048005750279</v>
       </c>
       <c r="J72">
-        <v>356.56047998842348</v>
+        <v>356.56047998842354</v>
       </c>
       <c r="K72">
         <v>0.65288228790950598</v>
@@ -10534,28 +10534,28 @@
         <v>2</v>
       </c>
       <c r="AJ72">
-        <v>0.7315446079079142</v>
+        <v>0.49051814802662286</v>
       </c>
       <c r="AK72">
-        <v>0.33620214074850502</v>
+        <v>0.35301469604785718</v>
       </c>
       <c r="AL72">
-        <v>0.13901426267597411</v>
+        <v>9.5503013846083298E-2</v>
       </c>
       <c r="AM72">
-        <v>1.5197909543561012</v>
+        <v>1.5915189893311803</v>
       </c>
       <c r="AN72">
-        <v>0.765625</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="AO72">
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="AP72">
-        <v>0.140625</v>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="AQ72">
-        <v>2.921875</v>
+        <v>3.609375</v>
       </c>
       <c r="AR72">
         <v>89</v>
@@ -10587,13 +10587,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>361.07501571779801</v>
+        <v>361.07501571779807</v>
       </c>
       <c r="H73">
         <v>361.34900933230847</v>
       </c>
       <c r="I73">
-        <v>360.84445902947357</v>
+        <v>360.84445902947351</v>
       </c>
       <c r="J73">
         <v>360.84445897657315</v>
@@ -10674,28 +10674,28 @@
         <v>0</v>
       </c>
       <c r="AJ73">
-        <v>0.4054268603253332</v>
+        <v>0.39437076481095346</v>
       </c>
       <c r="AK73">
-        <v>0.28931441137113878</v>
+        <v>0.27953872262191942</v>
       </c>
       <c r="AL73">
-        <v>0.14245965408809066</v>
+        <v>8.3319429195866157E-2</v>
       </c>
       <c r="AM73">
-        <v>1.9486036253908219</v>
+        <v>1.5469267365818662</v>
       </c>
       <c r="AN73">
-        <v>0.4375</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AO73">
-        <v>0.296875</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AP73">
-        <v>0.140625</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="AQ73">
-        <v>4.9375</v>
+        <v>3.3828125</v>
       </c>
       <c r="AR73">
         <v>46</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>365.32925941746373</v>
+        <v>365.32925941746367</v>
       </c>
       <c r="H74">
         <v>365.59180344533985</v>
@@ -10814,28 +10814,28 @@
         <v>0</v>
       </c>
       <c r="AJ74">
-        <v>0.74083228237455534</v>
+        <v>0.71589151501213844</v>
       </c>
       <c r="AK74">
-        <v>0.33132015390398578</v>
+        <v>0.28386289333714376</v>
       </c>
       <c r="AL74">
-        <v>0.14873493643570376</v>
+        <v>9.1317724134856351E-2</v>
       </c>
       <c r="AM74">
-        <v>2.2268460844675775</v>
+        <v>1.661364683875723</v>
       </c>
       <c r="AN74">
-        <v>0.796875</v>
+        <v>0.74062499999999998</v>
       </c>
       <c r="AO74">
-        <v>0.34375</v>
+        <v>0.29062500000000002</v>
       </c>
       <c r="AP74">
-        <v>0.15625</v>
+        <v>9.0624999999999997E-2</v>
       </c>
       <c r="AQ74">
-        <v>3.71875</v>
+        <v>3.4296875</v>
       </c>
       <c r="AR74">
         <v>131</v>
@@ -10870,7 +10870,7 @@
         <v>369.56045763719976</v>
       </c>
       <c r="H75">
-        <v>369.81621910752062</v>
+        <v>369.81621910752068</v>
       </c>
       <c r="I75">
         <v>369.34103963757531</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>26</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <v>26</v>
@@ -10954,28 +10954,28 @@
         <v>0</v>
       </c>
       <c r="AJ75">
-        <v>0.76830400270961341</v>
+        <v>0.55836709937882012</v>
       </c>
       <c r="AK75">
-        <v>0.20466882289623284</v>
+        <v>0.19345055788146492</v>
       </c>
       <c r="AL75">
-        <v>7.6138274956475557E-2</v>
+        <v>8.1175722317535864E-2</v>
       </c>
       <c r="AM75">
-        <v>2.038830735123748</v>
+        <v>1.5767788395385556</v>
       </c>
       <c r="AN75">
-        <v>0.8125</v>
+        <v>0.58281249999999996</v>
       </c>
       <c r="AO75">
-        <v>0.21875</v>
+        <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>7.8125E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="AQ75">
-        <v>4.015625</v>
+        <v>3.3578125000000001</v>
       </c>
       <c r="AR75">
         <v>89</v>
@@ -11010,13 +11010,13 @@
         <v>373.76915281087668</v>
       </c>
       <c r="H76">
-        <v>374.01697747412601</v>
+        <v>374.01697747412607</v>
       </c>
       <c r="I76">
         <v>373.55713213601985</v>
       </c>
       <c r="J76">
-        <v>373.55713237340871</v>
+        <v>373.55713237340876</v>
       </c>
       <c r="K76">
         <v>0.51171131087664889</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>31</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC76">
         <v>31</v>
@@ -11094,28 +11094,28 @@
         <v>0</v>
       </c>
       <c r="AJ76">
-        <v>0.86640175663002106</v>
+        <v>0.69627715516536304</v>
       </c>
       <c r="AK76">
-        <v>0.18605562661733255</v>
+        <v>0.16704411508584482</v>
       </c>
       <c r="AL76">
-        <v>0.12030291989064042</v>
+        <v>8.8780307250967597E-2</v>
       </c>
       <c r="AM76">
-        <v>1.5156258218968064</v>
+        <v>1.5924288363151051</v>
       </c>
       <c r="AN76">
-        <v>0.90625</v>
+        <v>0.71875</v>
       </c>
       <c r="AO76">
-        <v>0.203125</v>
+        <v>0.17343749999999999</v>
       </c>
       <c r="AP76">
-        <v>0.125</v>
+        <v>9.0624999999999997E-2</v>
       </c>
       <c r="AQ76">
-        <v>3.296875</v>
+        <v>3.53125</v>
       </c>
       <c r="AR76">
         <v>122</v>
@@ -11156,7 +11156,7 @@
         <v>377.75528730152877</v>
       </c>
       <c r="J77">
-        <v>377.75528733262468</v>
+        <v>377.75528733262473</v>
       </c>
       <c r="K77">
         <v>0.48174661615166769</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y77">
         <v>40</v>
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC77">
         <v>40</v>
@@ -11234,28 +11234,28 @@
         <v>0</v>
       </c>
       <c r="AJ77">
-        <v>0.47195639985784793</v>
+        <v>0.37808082489543032</v>
       </c>
       <c r="AK77">
-        <v>0.21158301975631441</v>
+        <v>0.1919762061237863</v>
       </c>
       <c r="AL77">
-        <v>0.1190847485460846</v>
+        <v>9.2379859111155163E-2</v>
       </c>
       <c r="AM77">
-        <v>1.5965312587000784</v>
+        <v>1.7477933476319827</v>
       </c>
       <c r="AN77">
-        <v>0.515625</v>
+        <v>0.39687499999999998</v>
       </c>
       <c r="AO77">
-        <v>0.234375</v>
+        <v>0.20156250000000001</v>
       </c>
       <c r="AP77">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AQ77">
-        <v>2.90625</v>
+        <v>3.5375000000000001</v>
       </c>
       <c r="AR77">
         <v>52</v>
@@ -11290,10 +11290,10 @@
         <v>382.11641857311542</v>
       </c>
       <c r="H78">
-        <v>382.29761960758407</v>
+        <v>382.29761960758412</v>
       </c>
       <c r="I78">
-        <v>381.93425239127885</v>
+        <v>381.93425239127879</v>
       </c>
       <c r="J78">
         <v>381.93425238628021</v>
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y78">
         <v>44</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC78">
         <v>44</v>
@@ -11374,28 +11374,28 @@
         <v>0</v>
       </c>
       <c r="AJ78">
-        <v>0.60068099562895227</v>
+        <v>0.44569374268910184</v>
       </c>
       <c r="AK78">
-        <v>0.22082418689147562</v>
+        <v>0.20659206864378049</v>
       </c>
       <c r="AL78">
-        <v>0.14550636541034861</v>
+        <v>8.1380066630807796E-2</v>
       </c>
       <c r="AM78">
-        <v>1.8291198760146616</v>
+        <v>1.6328756033545695</v>
       </c>
       <c r="AN78">
-        <v>0.671875</v>
+        <v>0.46562500000000001</v>
       </c>
       <c r="AO78">
-        <v>0.234375</v>
+        <v>0.21562500000000001</v>
       </c>
       <c r="AP78">
-        <v>0.125</v>
+        <v>8.2812499999999997E-2</v>
       </c>
       <c r="AQ78">
-        <v>4.140625</v>
+        <v>3.2312500000000002</v>
       </c>
       <c r="AR78">
         <v>55</v>
@@ -11427,13 +11427,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>386.2497432548879</v>
+        <v>386.24974325488796</v>
       </c>
       <c r="H79">
         <v>386.3956454465183</v>
       </c>
       <c r="I79">
-        <v>386.0886210420756</v>
+        <v>386.08862104207566</v>
       </c>
       <c r="J79">
         <v>386.08862111712</v>
@@ -11478,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y79">
         <v>50</v>
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC79">
         <v>50</v>
@@ -11514,28 +11514,28 @@
         <v>0</v>
       </c>
       <c r="AJ79">
-        <v>0.60377132762073626</v>
+        <v>0.43044733475165164</v>
       </c>
       <c r="AK79">
-        <v>0.22142012221485233</v>
+        <v>0.21394015672063776</v>
       </c>
       <c r="AL79">
-        <v>0.14138838176296784</v>
+        <v>7.1066949303943167E-2</v>
       </c>
       <c r="AM79">
-        <v>1.9743876107034859</v>
+        <v>1.6414423161117682</v>
       </c>
       <c r="AN79">
-        <v>0.65625</v>
+        <v>0.453125</v>
       </c>
       <c r="AO79">
-        <v>0.21875</v>
+        <v>0.22343750000000001</v>
       </c>
       <c r="AP79">
-        <v>0.140625</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AQ79">
-        <v>4.234375</v>
+        <v>3.4515625000000001</v>
       </c>
       <c r="AR79">
         <v>58</v>
@@ -11567,16 +11567,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>390.35513420845871</v>
+        <v>390.35513420845876</v>
       </c>
       <c r="H80">
-        <v>390.48024403856124</v>
+        <v>390.48024403856118</v>
       </c>
       <c r="I80">
         <v>390.20964538687764</v>
       </c>
       <c r="J80">
-        <v>390.20964548420653</v>
+        <v>390.20964548420659</v>
       </c>
       <c r="K80">
         <v>0.35775810845871092</v>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y80">
         <v>54</v>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC80">
         <v>55</v>
@@ -11654,28 +11654,28 @@
         <v>0</v>
       </c>
       <c r="AJ80">
-        <v>0.5372924650425237</v>
+        <v>0.57216417338379233</v>
       </c>
       <c r="AK80">
-        <v>0.19954467718780108</v>
+        <v>0.18266639980986454</v>
       </c>
       <c r="AL80">
-        <v>0.12362867520177767</v>
+        <v>6.0499452013405709E-2</v>
       </c>
       <c r="AM80">
-        <v>1.9927923258412694</v>
+        <v>1.6266415141301001</v>
       </c>
       <c r="AN80">
-        <v>0.578125</v>
+        <v>0.59687500000000004</v>
       </c>
       <c r="AO80">
-        <v>0.234375</v>
+        <v>0.19062499999999999</v>
       </c>
       <c r="AP80">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ80">
-        <v>3.65625</v>
+        <v>3.5375000000000001</v>
       </c>
       <c r="AR80">
         <v>86</v>
@@ -11707,16 +11707,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>394.4308292660827</v>
+        <v>394.43082926608264</v>
       </c>
       <c r="H81">
-        <v>394.53157194903486</v>
+        <v>394.53157194903491</v>
       </c>
       <c r="I81">
         <v>394.29192334031637</v>
       </c>
       <c r="J81">
-        <v>394.29192338519601</v>
+        <v>394.29192338519607</v>
       </c>
       <c r="K81">
         <v>0.33035686608269543</v>
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y81">
         <v>63</v>
@@ -11770,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AC81">
         <v>64</v>
@@ -11779,7 +11779,7 @@
         <v>64</v>
       </c>
       <c r="AE81">
-        <v>1.0000000489570773</v>
+        <v>1.0000000489570771</v>
       </c>
       <c r="AF81">
         <v>1.932876081411905E-11</v>
@@ -11794,28 +11794,28 @@
         <v>0</v>
       </c>
       <c r="AJ81">
-        <v>0.56168315485209386</v>
+        <v>0.46361442784394147</v>
       </c>
       <c r="AK81">
-        <v>0.16631631143618489</v>
+        <v>0.16102056048267724</v>
       </c>
       <c r="AL81">
-        <v>0.13750902883711144</v>
+        <v>7.2546625368010598E-2</v>
       </c>
       <c r="AM81">
-        <v>3.0309517516906217</v>
+        <v>1.6838870772348375</v>
       </c>
       <c r="AN81">
-        <v>0.609375</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="AO81">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="AP81">
-        <v>0.140625</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="AQ81">
-        <v>4.703125</v>
+        <v>3.4437500000000001</v>
       </c>
       <c r="AR81">
         <v>59</v>
@@ -11847,16 +11847,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>398.47553029013375</v>
+        <v>398.4755302901338</v>
       </c>
       <c r="H82">
-        <v>398.54952553267162</v>
+        <v>398.54952553267157</v>
       </c>
       <c r="I82">
-        <v>398.3411055039445</v>
+        <v>398.34110550394456</v>
       </c>
       <c r="J82">
-        <v>398.34110595866673</v>
+        <v>398.34110595866679</v>
       </c>
       <c r="K82">
         <v>0.29993339013373088</v>
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y82">
         <v>65</v>
@@ -11910,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AC82">
         <v>66</v>
@@ -11934,28 +11934,28 @@
         <v>0</v>
       </c>
       <c r="AJ82">
-        <v>0.6760392303774343</v>
+        <v>0.52932130809868705</v>
       </c>
       <c r="AK82">
-        <v>0.18182089353092643</v>
+        <v>0.16765984225298988</v>
       </c>
       <c r="AL82">
-        <v>0.1260018320681201</v>
+        <v>6.9437615326561203E-2</v>
       </c>
       <c r="AM82">
-        <v>1.8028470826111334</v>
+        <v>1.8034734684360043</v>
       </c>
       <c r="AN82">
-        <v>0.734375</v>
+        <v>0.55312499999999998</v>
       </c>
       <c r="AO82">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="AP82">
-        <v>0.125</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="AQ82">
-        <v>3.921875</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="AR82">
         <v>90</v>
@@ -11993,7 +11993,7 @@
         <v>402.5527933721101</v>
       </c>
       <c r="I83">
-        <v>402.36058415404966</v>
+        <v>402.36058415404972</v>
       </c>
       <c r="J83">
         <v>402.36058455192455</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Y83">
         <v>65</v>
@@ -12050,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AC83">
         <v>66</v>
@@ -12062,7 +12062,7 @@
         <v>9.2725000344628938E-8</v>
       </c>
       <c r="AF83">
-        <v>1.000000000236684</v>
+        <v>1.0000000002366838</v>
       </c>
       <c r="AG83">
         <v>9.4876318745829025E-9</v>
@@ -12074,28 +12074,28 @@
         <v>0</v>
       </c>
       <c r="AJ83">
-        <v>0.70065572129984466</v>
+        <v>0.52290882253605697</v>
       </c>
       <c r="AK83">
-        <v>0.16161714651541415</v>
+        <v>0.1491629452651681</v>
       </c>
       <c r="AL83">
-        <v>0.15116165691830233</v>
+        <v>8.4842694009225159E-2</v>
       </c>
       <c r="AM83">
-        <v>2.0917750020206634</v>
+        <v>1.7705767923748232</v>
       </c>
       <c r="AN83">
-        <v>0.734375</v>
+        <v>0.54843750000000002</v>
       </c>
       <c r="AO83">
-        <v>0.171875</v>
+        <v>0.15468750000000001</v>
       </c>
       <c r="AP83">
-        <v>0.140625</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="AQ83">
-        <v>4.09375</v>
+        <v>3.40625</v>
       </c>
       <c r="AR83">
         <v>84</v>
@@ -12133,7 +12133,7 @@
         <v>406.5128318346442</v>
       </c>
       <c r="I84">
-        <v>406.34972482323218</v>
+        <v>406.34972482323212</v>
       </c>
       <c r="J84">
         <v>406.34972483972109</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Y84">
         <v>73</v>
@@ -12190,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AC84">
         <v>74</v>
@@ -12199,7 +12199,7 @@
         <v>74</v>
       </c>
       <c r="AE84">
-        <v>1.0000001490833512</v>
+        <v>1.0000001490833514</v>
       </c>
       <c r="AF84">
         <v>1.6375456546313671E-11</v>
@@ -12214,28 +12214,28 @@
         <v>0</v>
       </c>
       <c r="AJ84">
-        <v>0.71824158666336513</v>
+        <v>0.63299260979858407</v>
       </c>
       <c r="AK84">
-        <v>0.15776633946887986</v>
+        <v>0.14367554190052723</v>
       </c>
       <c r="AL84">
-        <v>0.10074578515280705</v>
+        <v>0.10201762345414697</v>
       </c>
       <c r="AM84">
-        <v>2.3566159726062197</v>
+        <v>1.7054332942991111</v>
       </c>
       <c r="AN84">
-        <v>0.75</v>
+        <v>0.65937500000000004</v>
       </c>
       <c r="AO84">
-        <v>0.171875</v>
+        <v>0.15468750000000001</v>
       </c>
       <c r="AP84">
-        <v>0.109375</v>
+        <v>0.1015625</v>
       </c>
       <c r="AQ84">
-        <v>3.984375</v>
+        <v>3.6296875000000002</v>
       </c>
       <c r="AR84">
         <v>95</v>
@@ -12270,13 +12270,13 @@
         <v>410.38077755919221</v>
       </c>
       <c r="H85">
-        <v>410.4242205369473</v>
+        <v>410.42422053694725</v>
       </c>
       <c r="I85">
-        <v>410.29633489353461</v>
+        <v>410.29633489353466</v>
       </c>
       <c r="J85">
-        <v>410.29633490007626</v>
+        <v>410.2963349000762</v>
       </c>
       <c r="K85">
         <v>0.20536885919221959</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="Y85">
         <v>75</v>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AC85">
         <v>76</v>
@@ -12354,28 +12354,28 @@
         <v>0</v>
       </c>
       <c r="AJ85">
-        <v>0.71019902571951654</v>
+        <v>0.48072273931073328</v>
       </c>
       <c r="AK85">
-        <v>0.16110556586913544</v>
+        <v>0.15296055490819263</v>
       </c>
       <c r="AL85">
-        <v>8.96151373986942E-2</v>
+        <v>6.4016669569375878E-2</v>
       </c>
       <c r="AM85">
-        <v>2.0125759031723773</v>
+        <v>1.8746321176915477</v>
       </c>
       <c r="AN85">
-        <v>0.75</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="AO85">
-        <v>0.171875</v>
+        <v>0.15937499999999999</v>
       </c>
       <c r="AP85">
-        <v>7.8125E-2</v>
+        <v>6.4062499999999994E-2</v>
       </c>
       <c r="AQ85">
-        <v>4.09375</v>
+        <v>3.8859374999999998</v>
       </c>
       <c r="AR85">
         <v>58</v>
@@ -12407,10 +12407,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>414.23612335267347</v>
+        <v>414.23612335267342</v>
       </c>
       <c r="H86">
-        <v>414.27467286611267</v>
+        <v>414.27467286611261</v>
       </c>
       <c r="I86">
         <v>414.16901086619794</v>
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="Y86">
         <v>82</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AC86">
         <v>83</v>
@@ -12479,7 +12479,7 @@
         <v>83</v>
       </c>
       <c r="AE86">
-        <v>1.0000001633242808</v>
+        <v>1.0000001633242805</v>
       </c>
       <c r="AF86">
         <v>8.911649196363669E-12</v>
@@ -12494,28 +12494,28 @@
         <v>0</v>
       </c>
       <c r="AJ86">
-        <v>0.32708734525888228</v>
+        <v>0.47321296551998426</v>
       </c>
       <c r="AK86">
-        <v>0.1142948141438738</v>
+        <v>0.11174102573724805</v>
       </c>
       <c r="AL86">
-        <v>5.7191188111571409E-2</v>
+        <v>5.5518980350422756E-2</v>
       </c>
       <c r="AM86">
-        <v>1.806071163273449</v>
+        <v>1.8683464853323375</v>
       </c>
       <c r="AN86">
-        <v>0.359375</v>
+        <v>0.49375000000000002</v>
       </c>
       <c r="AO86">
-        <v>0.125</v>
+        <v>0.1203125</v>
       </c>
       <c r="AP86">
-        <v>6.25E-2</v>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="AQ86">
-        <v>3.484375</v>
+        <v>3.6296875000000002</v>
       </c>
       <c r="AR86">
         <v>70</v>
@@ -12547,16 +12547,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>417.9977505255149</v>
+        <v>417.99775052551479</v>
       </c>
       <c r="H87">
         <v>418.01206111130375</v>
       </c>
       <c r="I87">
-        <v>417.9540393449517</v>
+        <v>417.95403934495164</v>
       </c>
       <c r="J87">
-        <v>417.95404003914814</v>
+        <v>417.95404003914803</v>
       </c>
       <c r="K87">
         <v>6.6212025514914785E-2</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Y87">
         <v>86</v>
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AC87">
         <v>87</v>
@@ -12634,28 +12634,28 @@
         <v>0</v>
       </c>
       <c r="AJ87">
-        <v>0.5591287797630885</v>
+        <v>0.53803203372146247</v>
       </c>
       <c r="AK87">
-        <v>9.2528100050420364E-2</v>
+        <v>9.3676456013371073E-2</v>
       </c>
       <c r="AL87">
-        <v>6.2336502674331933E-2</v>
+        <v>4.3832833457941353E-2</v>
       </c>
       <c r="AM87">
-        <v>1.843348874265986</v>
+        <v>1.7687946251447744</v>
       </c>
       <c r="AN87">
-        <v>0.609375</v>
+        <v>0.55781250000000004</v>
       </c>
       <c r="AO87">
-        <v>7.8125E-2</v>
+        <v>0.1046875</v>
       </c>
       <c r="AP87">
-        <v>6.25E-2</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="AQ87">
-        <v>3.828125</v>
+        <v>3.5484374999999999</v>
       </c>
       <c r="AR87">
         <v>85</v>
@@ -12696,7 +12696,7 @@
         <v>421.53472612755706</v>
       </c>
       <c r="J88">
-        <v>421.53472623906538</v>
+        <v>421.53472623906544</v>
       </c>
       <c r="K88">
         <v>7.1976618760288602E-2</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y88">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AC88">
         <v>90</v>
@@ -12774,28 +12774,28 @@
         <v>4</v>
       </c>
       <c r="AJ88">
-        <v>0.52905329034559112</v>
+        <v>0.50757302398471726</v>
       </c>
       <c r="AK88">
-        <v>5.8572616226632471E-2</v>
+        <v>5.893173244911358E-2</v>
       </c>
       <c r="AL88">
-        <v>4.0889887317546926E-2</v>
+        <v>4.5941419158586391E-2</v>
       </c>
       <c r="AM88">
-        <v>2.4450318623331668</v>
+        <v>2.075845642584444</v>
       </c>
       <c r="AN88">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="AO88">
-        <v>4.6875E-2</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="AP88">
-        <v>4.6875E-2</v>
+        <v>4.0625000000000001E-2</v>
       </c>
       <c r="AQ88">
-        <v>4.234375</v>
+        <v>3.9031250000000002</v>
       </c>
       <c r="AR88">
         <v>78</v>
@@ -12827,16 +12827,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>425.00237457442876</v>
+        <v>425.0023745744287</v>
       </c>
       <c r="H89">
         <v>424.88262487917518</v>
       </c>
       <c r="I89">
-        <v>424.91180725091698</v>
+        <v>424.91180725091692</v>
       </c>
       <c r="J89">
-        <v>424.91180725173996</v>
+        <v>424.91180725174002</v>
       </c>
       <c r="K89">
         <v>0.1197496744287605</v>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y89">
         <v>87</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AC89">
         <v>87</v>
@@ -12914,28 +12914,28 @@
         <v>0</v>
       </c>
       <c r="AJ89">
-        <v>0.38136974034154986</v>
+        <v>0.33622818437623986</v>
       </c>
       <c r="AK89">
-        <v>6.2876629199932768E-2</v>
+        <v>5.4747918148090768E-2</v>
       </c>
       <c r="AL89">
-        <v>5.1219967489771596E-2</v>
+        <v>3.6653423256377868E-2</v>
       </c>
       <c r="AM89">
-        <v>2.3809245529202112</v>
+        <v>1.9335182086467377</v>
       </c>
       <c r="AN89">
-        <v>0.421875</v>
+        <v>0.3671875</v>
       </c>
       <c r="AO89">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AP89">
-        <v>9.375E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ89">
-        <v>4.765625</v>
+        <v>3.9453125</v>
       </c>
       <c r="AR89">
         <v>35</v>
